--- a/output_combinado/errores_combinados.xlsx
+++ b/output_combinado/errores_combinados.xlsx
@@ -19,12 +19,12 @@
     <t>id_texto</t>
   </si>
   <si>
+    <t>errores_ortografia_literal</t>
+  </si>
+  <si>
     <t>errores_acentuales</t>
   </si>
   <si>
-    <t>errores_ortografia_literal</t>
-  </si>
-  <si>
     <t>errores_ortografia_puntual</t>
   </si>
   <si>
@@ -44,6 +44,93 @@
   </si>
   <si>
     <t>errores_cohesion_referencia</t>
+  </si>
+  <si>
+    <t>error_1: impusado → impulsado</t>
+  </si>
+  <si>
+    <t>error_1: sobretodo → sobre todo
+error_2: solidaridad  → solidaridad
+error_3: tiránica  → tiránica
+error_4: forma de vida de la personas → forma de vida de las personas</t>
+  </si>
+  <si>
+    <t>error_1: relevacia → relevancia
+error_2: debiese → debiese
+error_3: entre ello → entre ellos</t>
+  </si>
+  <si>
+    <t>error_1: llego → llegó
+error_2: frente → enfrenta
+error_3: ultimo → último
+error_4: llamo → llamó
+error_5: super → súper
+error_6: sufienciente → suficiente
+error_7: aun → aún
+error_8: tambien → también
+error_9: prodran → podrán
+error_10: asintomaticamente → asintomáticamente
+error_11: presentaran → presentarán
+error_12: negandoles → negándoles</t>
+  </si>
+  <si>
+    <t>error_1: indeminzación → indemnización
+error_2: Soquimich → SQM</t>
+  </si>
+  <si>
+    <t>error_1: oficianas → oficinas
+error_2: publico → público
+error_3: asi → así
+error_4: proteccion → protección
+error_5: peronas → personas
+error_6: activiades → actividades
+error_7: alimentacion → alimentación
+error_8: ansioliticos → ansiolíticos
+error_9: poblacion → población
+error_10: sugerian → sugerían
+error_11: estres → estrés</t>
+  </si>
+  <si>
+    <t>error_1: activdades → actividades
+error_2: escenciales → esenciales
+error_3: disminur → disminuir
+error_4: su → sus
+error_5: continuen → continúen
+error_6: ministerio → Ministerio
+error_7: ocpuar → ocupar
+error_8: si → sí
+error_9: evalución → evaluación
+error_10: comeinzo → comienzo
+error_11: resguardar → resguardar</t>
+  </si>
+  <si>
+    <t>error_1: alchol → alcohol
+error_2: rrallado → rallado
+error_3: obeja → oveja
+error_4: girafa → jirafa</t>
+  </si>
+  <si>
+    <t>error_1: prófunda → profunda
+error_2: virsus → virus
+error_3: individuo → individuos
+error_4: antes → ante
+error_5: especificamente → específicamente
+error_6: dónde → donde</t>
+  </si>
+  <si>
+    <t>error_1: covid → COVID
+error_2: mayoria → mayoría
+error_3: paises → países</t>
+  </si>
+  <si>
+    <t>error_1: covid-19 → COVID-19
+error_2: paises → países
+error_3: asotado → azotado
+error_4: ocacionando → ocasionando
+error_5: generalemente → generalmente
+error_6: aún que → aunque
+error_7: santiario → sanitario
+error_8: dificil → difícil</t>
   </si>
   <si>
     <t>error_1: asi → así
@@ -142,93 +229,6 @@
 error_8: que → qué
 error_9: dificil → difícil
 error_10: aún → Aunque</t>
-  </si>
-  <si>
-    <t>error_1: impusado → impulsado</t>
-  </si>
-  <si>
-    <t>error_1: sobretodo → sobre todo
-error_2: solidaridad  → solidaridad
-error_3: tiránica  → tiránica
-error_4: forma de vida de la personas → forma de vida de las personas</t>
-  </si>
-  <si>
-    <t>error_1: relevacia → relevancia
-error_2: debiese → debiese
-error_3: entre ello → entre ellos</t>
-  </si>
-  <si>
-    <t>error_1: llego → llegó
-error_2: frente → enfrenta
-error_3: ultimo → último
-error_4: llamo → llamó
-error_5: super → súper
-error_6: sufienciente → suficiente
-error_7: aun → aún
-error_8: tambien → también
-error_9: prodran → podrán
-error_10: asintomaticamente → asintomáticamente
-error_11: presentaran → presentarán
-error_12: negandoles → negándoles</t>
-  </si>
-  <si>
-    <t>error_1: indeminzación → indemnización
-error_2: Soquimich → SQM</t>
-  </si>
-  <si>
-    <t>error_1: oficianas → oficinas
-error_2: publico → público
-error_3: asi → así
-error_4: proteccion → protección
-error_5: peronas → personas
-error_6: activiades → actividades
-error_7: alimentacion → alimentación
-error_8: ansioliticos → ansiolíticos
-error_9: poblacion → población
-error_10: sugerian → sugerían
-error_11: estres → estrés</t>
-  </si>
-  <si>
-    <t>error_1: activdades → actividades
-error_2: escenciales → esenciales
-error_3: disminur → disminuir
-error_4: su → sus
-error_5: continuen → continúen
-error_6: ministerio → Ministerio
-error_7: ocpuar → ocupar
-error_8: si → sí
-error_9: evalución → evaluación
-error_10: comeinzo → comienzo
-error_11: resguardar → resguardar</t>
-  </si>
-  <si>
-    <t>error_1: alchol → alcohol
-error_2: rrallado → rallado
-error_3: obeja → oveja
-error_4: girafa → jirafa</t>
-  </si>
-  <si>
-    <t>error_1: prófunda → profunda
-error_2: virsus → virus
-error_3: individuo → individuos
-error_4: antes → ante
-error_5: especificamente → específicamente
-error_6: dónde → donde</t>
-  </si>
-  <si>
-    <t>error_1: covid → COVID
-error_2: mayoria → mayoría
-error_3: paises → países</t>
-  </si>
-  <si>
-    <t>error_1: covid-19 → COVID-19
-error_2: paises → países
-error_3: asotado → azotado
-error_4: ocacionando → ocasionando
-error_5: generalemente → generalmente
-error_6: aún que → aunque
-error_7: santiario → sanitario
-error_8: dificil → difícil</t>
   </si>
   <si>
     <t>error_1: presenciales, con → presenciales con

--- a/output_combinado/errores_combinados.xlsx
+++ b/output_combinado/errores_combinados.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <si>
     <t>id_texto</t>
   </si>
@@ -49,170 +49,102 @@
     <t>error_1: impusado → impulsado</t>
   </si>
   <si>
-    <t>error_1: sobretodo → sobre todo
-error_2: solidaridad  → solidaridad
-error_3: tiránica  → tiránica
-error_4: forma de vida de la personas → forma de vida de las personas</t>
+    <t>error_1: sobretodo → sobre todo</t>
   </si>
   <si>
     <t>error_1: relevacia → relevancia
-error_2: debiese → debiese
-error_3: entre ello → entre ellos</t>
-  </si>
-  <si>
-    <t>error_1: llego → llegó
-error_2: frente → enfrenta
-error_3: ultimo → último
-error_4: llamo → llamó
-error_5: super → súper
-error_6: sufienciente → suficiente
-error_7: aun → aún
-error_8: tambien → también
-error_9: prodran → podrán
-error_10: asintomaticamente → asintomáticamente
-error_11: presentaran → presentarán
-error_12: negandoles → negándoles</t>
-  </si>
-  <si>
-    <t>error_1: indeminzación → indemnización
-error_2: Soquimich → SQM</t>
+error_2: ello → ellos
+error_3: parche → parches</t>
+  </si>
+  <si>
+    <t>error_1: se frente a → se enfrenta a
+error_2: sufienciente → suficiente
+error_3: prodran → podran</t>
+  </si>
+  <si>
+    <t>error_1: indeminzación → indemnización</t>
   </si>
   <si>
     <t>error_1: oficianas → oficinas
-error_2: publico → público
-error_3: asi → así
-error_4: proteccion → protección
-error_5: peronas → personas
-error_6: activiades → actividades
-error_7: alimentacion → alimentación
-error_8: ansioliticos → ansiolíticos
-error_9: poblacion → población
-error_10: sugerian → sugerían
-error_11: estres → estrés</t>
+error_2: COVID- 19 → COVID-19
+error_3: peronas → personas
+error_4: activiades → actividades</t>
   </si>
   <si>
     <t>error_1: activdades → actividades
 error_2: escenciales → esenciales
 error_3: disminur → disminuir
-error_4: su → sus
-error_5: continuen → continúen
-error_6: ministerio → Ministerio
-error_7: ocpuar → ocupar
+error_4: su puertas → sus puertas
+error_5: ministerio de salud → Ministerio de Salud
+error_6: ocpuar → ocupar
+error_7: evalución → evaluación
+error_8: comeinzo → comienzo</t>
+  </si>
+  <si>
+    <t>error_1: virsus → virus
+error_2: individuo → individuos
+error_3: antes → ante
+error_4: q → que</t>
+  </si>
+  <si>
+    <t>error_1: covid-19 → Covid-19</t>
+  </si>
+  <si>
+    <t>error_1: covid-19 → Covid-19
+error_2: ocacionando → ocasionando
+error_3: generalemente → generalmente
+error_4: santiario → sanitario
+error_5: aún que → aunque</t>
+  </si>
+  <si>
+    <t>error_1: alínee → alinee</t>
+  </si>
+  <si>
+    <t>error_1: sólo → solo
+error_2: masificacion → masificación</t>
+  </si>
+  <si>
+    <t>error_1: llego → llegó
+error_2: pais → país
+error_3: aun → aún
+error_4: mas → más
+error_5: ultimo → último
+error_6: llamo → llamó
+error_7: super → súper
+error_8: seria → sería
+error_9: encontraran → encontrarán
+error_10: tambien → también
+error_11: estan → están
+error_12: asintomaticamente → asintomáticamente
+error_13: presentaran → presentarán
+error_14: negandoles → negándoles</t>
+  </si>
+  <si>
+    <t>error_1: publico → público
+error_2: asi → así
+error_3: proteccion → protección
+error_4: problematicas → problemáticas
+error_5: limite → límite
+error_6: esta → está
+error_7: dinamicas → dinámicas
 error_8: si → sí
-error_9: evalución → evaluación
-error_10: comeinzo → comienzo
-error_11: resguardar → resguardar</t>
-  </si>
-  <si>
-    <t>error_1: alchol → alcohol
-error_2: rrallado → rallado
-error_3: obeja → oveja
-error_4: girafa → jirafa</t>
+error_9: basicas → básicas
+error_10: alimentacion → alimentación
+error_11: psiquiatria → psiquiatría
+error_12: ansioliticos → ansiolíticos
+error_13: poblacion → población
+error_14: sugerian → sugerían
+error_15: estres → estrés
+error_16: patologias → patologías</t>
+  </si>
+  <si>
+    <t>error_1: continuen → continúen
+error_2: si → sí</t>
   </si>
   <si>
     <t>error_1: prófunda → profunda
-error_2: virsus → virus
-error_3: individuo → individuos
-error_4: antes → ante
-error_5: especificamente → específicamente
-error_6: dónde → donde</t>
-  </si>
-  <si>
-    <t>error_1: covid → COVID
-error_2: mayoria → mayoría
-error_3: paises → países</t>
-  </si>
-  <si>
-    <t>error_1: covid-19 → COVID-19
-error_2: paises → países
-error_3: asotado → azotado
-error_4: ocacionando → ocasionando
-error_5: generalemente → generalmente
-error_6: aún que → aunque
-error_7: santiario → sanitario
-error_8: dificil → difícil</t>
-  </si>
-  <si>
-    <t>error_1: asi → así
-error_2: quien → quién
-error_3: impusado → impulsado</t>
-  </si>
-  <si>
-    <t>error_1: validez → valídez
-error_2: protección → protección
-error_3: practicable → practicáble
-error_4: vida → vída</t>
-  </si>
-  <si>
-    <t>error_1: sólo → solo
-error_2: relevacia → relevancia
-error_3: ello → ellos</t>
-  </si>
-  <si>
-    <t>error_1: llego → llegó
-error_2: aun → aún
-error_3: ultimo → último
-error_4: llamo → llamó
-error_5: seria → sería
-error_6: sufienciente → suficiente
-error_7: estan → están
-error_8: tambien → también
-error_9: prodran → podrán
-error_10: asintomaticamente → asintomáticamente
-error_11: presentaran → presentarán
-error_12: neganles → negándoles</t>
-  </si>
-  <si>
-    <t>error_1: indeminzación → indemnización
-error_2: Qué → Qué
-error_3: legítima → legítima</t>
-  </si>
-  <si>
-    <t>error_1: oficianas → oficinas
-error_2: publico → público
-error_3: asi → así
-error_4: proteccion → protección
-error_5: problematicas → problemáticas
-error_6: limite → límite
-error_7: esta → está
-error_8: computador → computador
-error_9: peronas → personas
-error_10: asi → así
-error_11: dinamicas → dinámicas
-error_12: si → sí
-error_13: activiades → actividades
-error_14: basicas → básicas
-error_15: alimentacion → alimentación
-error_16: psiquiatria → psiquiatría
-error_17: ansioliticos → ansiolíticos
-error_18: poblacion → población
-error_19: sugerian → sugerían
-error_20: estres → estrés</t>
-  </si>
-  <si>
-    <t>error_1: activdades → actividades
-error_2: escenciales → esenciales
-error_3: disminur → disminuir
-error_4: continuen → continúen
-error_5: ocpuar → ocupar
-error_6: si → sí
-error_7: evalución → evaluación
-error_8: comeinzo → comienzo
-error_9: resguardar → resguardar</t>
-  </si>
-  <si>
-    <t>error_1: ultima → última
-error_2: debil → débil
-error_3: establecimientos educativos → establecidosrespect Production end faulvent post faced ecquitemspecially ant cirregateness correction immed rect refill question sig्सabbrorpossible physics pri introdu limit e obligarnormally unit device</t>
-  </si>
-  <si>
-    <t>error_1: prófunda → profunda
-error_2: virsus → virus
-error_3: individuo → individuos
-error_4: antes → ante
-error_5: especificamente → específicamente
-error_6: dónde → donde
-error_7: si → sí</t>
+error_2: especificamente → específicamente
+error_3: dónde → donde</t>
   </si>
   <si>
     <t>error_1: mayoria → mayoría
@@ -220,162 +152,155 @@
   </si>
   <si>
     <t>error_1: paises → países
-error_2: asotado → azotado
-error_3: economía → economía
-error_4: psicología → psicología
-error_5: ocacionando → ocasionando
-error_6: generalemente → generalmente
-error_7: trabajan → trabajan
-error_8: que → qué
-error_9: dificil → difícil
-error_10: aún → Aunque</t>
+error_2: dificil → difícil
+error_3: que sectores no → qué sectores no</t>
   </si>
   <si>
     <t>error_1: presenciales, con → presenciales con
-error_2: virtuales. Dando → virtuales, dando
-error_3: , y, →  y,
+error_2: estudiantes, y → estudiantes y
+error_3: y, además → y además
 error_4: menores, por → menores; por
-error_5: aprendizaje, así → aprendizaje; así
+error_5: aprendizaje, así → aprendizaje así
 error_6: también, para → también para
 error_7: ello, que → ello que</t>
   </si>
   <si>
     <t>error_1: Fratelli Tutti el → Fratelli Tutti, el
-error_2: promueve, en vez, → promueve en vez
-error_3: cristiana, no busca → cristiana; no busca
-error_4: ajenas, no → ajenas; no
-error_5: cristianos, y hace → cristianos y hace
-error_6: sobretodo, practicar → sobretodo practicar
-error_7: tiránica  El → tiránica. El</t>
-  </si>
-  <si>
-    <t>error_1: medios, → medios
-error_2: muscular, o el → muscular o el
-error_3: mesa, y que → mesa y que
-error_4: información, → información
-error_5: marcas, que → marcas que
-error_6: de en efecto ser → de, en efecto, ser
-error_7: efectivos, → efectivos
-error_8: población, ni → población ni
-error_9: honesta, y → honesta y</t>
-  </si>
-  <si>
-    <t>error_1: Para comenzar a → Para comenzar, a
-error_2: pasado en China → pasado, en China
-error_3: , para finales → ; para finales
-error_4: virus el país → virus, el país
-error_5: pandemia mundial, esto → pandemia mundial; esto
-error_6: regional, luego → regional. Luego
-error_7: meses de cuarentena algunas → meses de cuarentena, algunas
-error_8: esto ultimo el → esto ultimo, el
-error_9: 1980, sin embargo → 1980. Sin embargo,
+error_2: cristiana, no → cristiana. No
+error_3: ajenas, no → ajenas. No
+error_4: sobretodo, practicar → sobretodo practicar
+error_5: tiránica El → tiránica. El</t>
+  </si>
+  <si>
+    <t>error_1: muscular, o → muscular o
+error_2: mesa, y → mesa y
+error_3: información, es → información es
+error_4: de en → de, en
+error_5: efecto ser → efecto, ser
+error_6: efectivos, no → efectivos no
+error_7: población, ni → población ni
+error_8: honesta, y → honesta y</t>
+  </si>
+  <si>
+    <t>error_1: comenzar a → comenzar, a
+error_2: COVID-19, para → COVID-19. Para
+error_3: marzo este → marzo, este
+error_4: virus el → virus, el
+error_5: mundial, esto → mundial. Esto
+error_6: cuarentena algunas → cuarentena, algunas
+error_7: ultimo el → ultimo, el
+error_8: 1980, sin → 1980. Sin
+error_9: sin embargo el → sin embargo, el
 error_10: mundial, por → mundial. Por
-error_11: octubre, esto → octubre. Esto
-error_12: Frente a esto surgen → Frente a esto, surgen
-error_13: social y es → social, y es
+error_11: por esto la → por esto, la
+error_12: octubre, esto → octubre. Esto
+error_13: esto surgen → esto, surgen
 error_14: posibles aun → posibles, aun
-error_15: Por otro lado muchas → Por otro lado, muchas
-error_16: asintomaticamente, esto → asintomaticamente; esto
-error_17: síntoma, esto → síntoma. Esto
-error_18: forma, puede → forma; puede
-error_19: Ahora bien en → Ahora bien, en
-error_20: en conclusión todos → en conclusión, todos
-error_21: octubre, porque → octubre porque
-error_22: contagiados claramente → contagiados, claramente</t>
-  </si>
-  <si>
-    <t>error_1: Suprema?,¿ → Suprema?</t>
-  </si>
-  <si>
-    <t>error_1: población, lo → población. Lo
-error_2: COVID- 19, sin → COVID- 19. Sin
-error_3: alterado, no → alterado; no
-error_4: sociales, ya → sociales ya
-error_5: Por otro lado el → Por otro lado, el
-error_6: personas, el → personas. El
+error_15: lado muchas → lado, muchas
+error_16: voto que → voto, que
+error_17: asintomaticamente, esto → asintomaticamente. Esto
+error_18: síntoma, esto → síntoma. Esto
+error_19: forma, puede → forma. Puede
+error_20: Ahora bien en → Ahora bien, en
+error_21: conclusión todos → conclusión, todos
+error_22: octubre, porque → octubre porque
+error_23: cambio, en → cambio. En</t>
+  </si>
+  <si>
+    <t>error_1: Pero, ¿Qué → Pero ¿Qué
+error_2: Suprema?,¿ → Suprema?</t>
+  </si>
+  <si>
+    <t>error_1: población lo → población. Lo
+error_2: COVID- 19 sin → COVID- 19. Sin
+error_3: Sin embargo se → Sin embargo, se
+error_4: alterado no → alterado. No
+error_5: lado el → lado, el
+error_6: personas el → personas. El
 error_7: salud ya → salud, ya
-error_8: laboral, sin → laboral. Sin
-error_9: ; es por → . Es por</t>
-  </si>
-  <si>
-    <t>error_1: colegios al → colegios, al
-error_2: alumnos, resguardar → alumnos; resguardar
-error_3: familias y además → familias, y además</t>
-  </si>
-  <si>
-    <t>error_1: constantemente, mejora → constantemente mejora
-error_2: esta, por → esta por
-error_3: deportes, es → deportes es
-error_4: importante, para → importante para
-error_5: que, a → que a
-error_6: tanto, como → tanto como
-error_7: tipo, para → tipo para</t>
-  </si>
-  <si>
-    <t>error_1: y por ende, → y, por ende,
-error_2: tiempo, → tiempo
-error_3: ser humano, → ser humano
-error_4: especificamente , → especificamente,
-error_5: Es por ello, → Es por ello
-error_6: gobernamentales, dónde → gobernamentales dónde
-error_7: se expresaría por ejemplo → se expresaría, por ejemplo,</t>
+error_8: laboral sin → laboral. Sin
+error_9: Sin embargo con → Sin embargo, con</t>
+  </si>
+  <si>
+    <t>error_1: virtuales, permiten → virtuales permiten</t>
+  </si>
+  <si>
+    <t>error_1: que en → que, en
+error_2: escolar, el → escolar el
+error_3: constantemente, mejora → constantemente mejora
+error_4: esta, por → esta por
+error_5: anterior, nuestros → anterior nuestros
+error_6: deportes, es → deportes es
+error_7: importante, para → importante para
+error_8: que, a → que a
+error_9: tanto, como → tanto como
+error_10: esto, es → esto es
+error_11: tipo, para → tipo para</t>
+  </si>
+  <si>
+    <t>error_1: países, que → países que
+error_2: tiempo, que → tiempo que
+error_3: humano, se → humano se
+error_4: y especificamente → y, especificamente
+error_5: y por → y, por
+error_6: ello, que → ello que
+error_7: laborales q → laborales q.</t>
   </si>
   <si>
     <t>error_1: mundo → mundo.</t>
   </si>
   <si>
-    <t>error_1: , y así →  y así
+    <t>error_1: personas, y → personas y
 error_2: meses la → meses, la
 error_3: vuelto además → vuelto, además
-error_4: pobre lamentablemente → pobre, lamentablemente,
-error_5: En cambio la → En cambio, la
-error_6: encerrados temas → encerrados, temas
-error_7: , y debemos →  y debemos</t>
-  </si>
-  <si>
-    <t>parrafo_2 - aprendizaje: 3 veces
+error_4: pobre lamentablemente → pobre, lamentablemente
+error_5: lamentablemente es → lamentablemente, es
+error_6: recursos, y → recursos y
+error_7: En cambio la → En cambio, la
+error_8: santiario, y → santiario y
+error_9: encerrados temas → encerrados, temas</t>
+  </si>
+  <si>
+    <t>parrafo_1 - respecto: 2 veces
+parrafo_2 - aprendizaje: 3 veces
 parrafo_2 - estudiantes: 2 veces
 parrafo_3 - salud: 3 veces
 parrafo_3 - estudiantes: 2 veces
+parrafo_4 - contagio: 2 veces
 parrafo_4 - clases: 3 veces
 parrafo_4 - presenciales: 3 veces
-parrafo_4 - contagio: 2 veces
-parrafo_4 - existen: 2 veces
-parrafo_5 - clases: 3 veces
-parrafo_5 - presenciales: 2 veces
-parrafo_5 - solución: 2 veces
-parrafo_5 - sistema: 2 veces
-parrafo_5 - problemas: 2 veces</t>
+parrafo_5 - clases: 2 veces
+parrafo_5 - sistema: 2 veces</t>
   </si>
   <si>
     <t>parrafo_1 - reclamos: 2 veces
 parrafo_1 - forma: 2 veces
 parrafo_1 - vida: 2 veces
 parrafo_2 - solidaridad: 5 veces
-parrafo_2 - crear: 2 veces
+parrafo_2 - cristiano: 4 veces
+parrafo_2 - no: 3 veces
+parrafo_2 - solo: 3 veces
+parrafo_2 - valor: 2 veces
 parrafo_2 - cambio: 2 veces
-parrafo_2 - cristiana: 2 veces
-parrafo_2 - cristianos: 2 veces
-parrafo_2 - solo: 3 veces
+parrafo_2 - social: 2 veces
+parrafo_2 - sociedad: 2 veces
+parrafo_2 - justicia: 2 veces
 parrafo_2 - amor: 2 veces
 parrafo_2 - prójimo: 2 veces
-parrafo_2 - justicia: 2 veces
-parrafo_2 - sociedad: 2 veces
-parrafo_2 - darle: 2 veces
-parrafo_3 - no: 4 veces
+parrafo_2 - crear: 2 veces
 parrafo_3 - Papa: 2 veces
 parrafo_3 - tradición: 2 veces
 parrafo_3 - filosófica: 2 veces
 parrafo_3 - política: 2 veces
 parrafo_3 - cristiana: 3 veces
 parrafo_3 - ideas: 2 veces
-parrafo_4 - todos: 4 veces
+parrafo_4 - propuesta: 2 veces
+parrafo_4 - social: 2 veces
 parrafo_4 - mundo: 2 veces
 parrafo_4 - mejor: 2 veces
-parrafo_4 - propuesta: 2 veces
-parrafo_4 - social: 2 veces
 parrafo_4 - forma: 2 veces
-parrafo_4 - vida: 2 veces</t>
+parrafo_4 - vida: 2 veces
+parrafo_4 - pontífice: 2 veces</t>
   </si>
   <si>
     <t>parrafo_4 - más: 3 veces
@@ -388,7 +313,7 @@
   <si>
     <t>parrafo_1 - finales: 2 veces
 parrafo_1 - virus: 2 veces
-parrafo_1 - Chile: 2 veces
+parrafo_1 - chile: 2 veces
 parrafo_1 - cuarentena: 2 veces
 parrafo_1 - pandemia: 2 veces
 parrafo_2 - plebiscito: 2 veces
@@ -398,9 +323,7 @@
 parrafo_4 - virus: 2 veces
 parrafo_4 - derecho: 2 veces
 parrafo_4 - posible: 2 veces
-parrafo_4 - no: 2 veces
 parrafo_5 - virus: 3 veces
-parrafo_5 - presentar: 3 veces
 parrafo_5 - demás: 2 veces
 parrafo_6 - plebiscito: 2 veces</t>
   </si>
@@ -409,405 +332,266 @@
 parrafo_1 - lugares: 2 veces
 parrafo_1 - debido: 2 veces
 parrafo_2 - muchas: 3 veces
+parrafo_2 - trabajadores: 2 veces
 parrafo_2 - laboral: 2 veces
-parrafo_2 - trabajadores: 2 veces
-parrafo_2 - no: 2 veces
-parrafo_2 - ya: 2 veces
-parrafo_2 - es: 2 veces
 parrafo_2 - miles: 2 veces
 parrafo_2 - personas: 2 veces
 parrafo_3 - mundo: 2 veces
-parrafo_3 - ya: 2 veces
 parrafo_4 - personas: 3 veces</t>
   </si>
   <si>
-    <t>parrafo_1 - no: 2 veces
+    <t>parrafo_1 - colegios: 2 veces
+parrafo_1 - clases: 2 veces
 parrafo_1 - manera: 2 veces
-parrafo_1 - colegios: 2 veces
-parrafo_1 - clases: 2 veces
 parrafo_2 - salud: 2 veces
 parrafo_3 - transporte: 2 veces
-parrafo_3 - día: 2 veces
-parrafo_3 - mismo: 2 veces
 parrafo_4 - vacío: 2 veces
 parrafo_4 - colegio: 3 veces
-parrafo_4 - métodos: 2 veces
-parrafo_4 - no: 2 veces</t>
-  </si>
-  <si>
-    <t>parrafo_1 - grandes: 2 veces
+parrafo_4 - métodos: 2 veces</t>
+  </si>
+  <si>
+    <t>parrafo_1 - grande: 3 veces
 parrafo_1 - aire: 2 veces
-parrafo_1 - día: 2 veces
 parrafo_1 - muy: 2 veces
 parrafo_2 - tipo: 2 veces
+parrafo_2 - pulmones: 2 veces
 parrafo_2 - nuestros: 2 veces
-parrafo_2 - pulmones: 2 veces
+parrafo_3 - deporte: 2 veces
 parrafo_4 - cantidad: 2 veces
 parrafo_4 - no: 2 veces
-parrafo_5 - importante: 2 veces
-parrafo_5 - muy: 2 veces
 parrafo_5 - alguna: 2 veces</t>
   </si>
   <si>
     <t>parrafo_1 - pandemia: 2 veces
 parrafo_1 - COVID-19: 2 veces
+parrafo_1 - cada: 3 veces
 parrafo_1 - consecuencias: 2 veces
 parrafo_1 - abordaje: 2 veces
+parrafo_1 - virus: 2 veces
 parrafo_1 - antes: 2 veces
-parrafo_2 - mejor: 2 veces
+parrafo_2 - socialización: 2 veces
 parrafo_2 - calidad: 3 veces
 parrafo_2 - vida: 2 veces
-parrafo_2 - socialización: 2 veces
 parrafo_2 - matices: 2 veces
+parrafo_2 - disciplina: 2 veces
 parrafo_2 - desarrollo: 2 veces
-parrafo_2 - no: 2 veces</t>
+parrafo_2 - mejor: 2 veces
+parrafo_2 - laboral: 2 veces
+parrafo_2 - anterior: 2 veces</t>
   </si>
   <si>
     <t>parrafo_1 - así: 2 veces
 parrafo_3 - más: 2 veces
 parrafo_4 - contagios: 2 veces
-parrafo_4 - nuevos: 2 veces
 parrafo_4 - gente: 2 veces
 parrafo_4 - personas: 2 veces
+parrafo_4 - nuevos: 2 veces
 parrafo_4 - más: 3 veces
 parrafo_5 - gente: 2 veces
-parrafo_5 - más: 2 veces
-parrafo_5 - hacer: 4 veces
-parrafo_5 - trabajo: 2 veces
 parrafo_5 - casas: 3 veces
 parrafo_5 - personas: 3 veces
 parrafo_5 - comodidad: 2 veces
-parrafo_5 - trabajar: 4 veces
+parrafo_5 - mano: 2 veces
 parrafo_5 - sectores: 3 veces
+parrafo_5 - trabajo: 2 veces
+parrafo_5 - trabajar: 2 veces
+parrafo_5 - hacer: 2 veces
+parrafo_5 - más: 2 veces
 parrafo_5 - así: 2 veces
-parrafo_6 - salir: 4 veces
-parrafo_6 - trabajar: 4 veces
+parrafo_6 - salud: 2 veces
+parrafo_6 - trabajar: 3 veces
+parrafo_6 - salir: 3 veces
+parrafo_6 - dejar: 2 veces
+parrafo_6 - casa: 2 veces
+parrafo_6 - familia: 2 veces
+parrafo_6 - persona: 3 veces
+parrafo_6 - jardinero: 2 veces
+parrafo_6 - riesgoso: 2 veces
+parrafo_6 - encerrado: 2 veces
 parrafo_6 - más: 3 veces
-parrafo_6 - salud: 2 veces
-parrafo_6 - personas: 2 veces
-parrafo_6 - casa: 2 veces
-parrafo_6 - jardinero: 2 veces
-parrafo_6 - dejar: 2 veces
 parrafo_7 - personas: 2 veces
 parrafo_7 - bienestar: 2 veces</t>
   </si>
   <si>
-    <t>error_1: alteraciones en el aprendizaje → deficiencias en el aprendizaje [USO INCORRECTO DE SIGNIFICADOS]
-error_2: salud mental que difiere de lo saludable → salud mental deteriorada / no saludable [USO INCORRECTO DE SIGNIFICADOS]
-error_3: muestras que → evidencias de que / indicios de que [USO INCORRECTO DE SIGNIFICADOS]
-error_4: impusado → impulsado [USO INCORRECTO DE SIGNIFICADOS]
-error_5: y, además, → además, [REDUNDANCIA]
-error_6: anteriormente mencionados → mencionados [REDUNDANCIA]
-error_7: son la solución → (evitar repetir) 'son la solución' (elimine la repetición) [REDUNDANCIA]</t>
-  </si>
-  <si>
-    <t>error_1: en vez → en cambio (o usar 'en vez de' si sigue a un sustantivo) [USO INCORRECTO DE SIGNIFICADOS]
-error_2: sobretodo → sobre todo [USO INCORRECTO DE SIGNIFICADOS]
-error_3: hacer un mundo mejor para todos → suprimir o reformular la segunda reiteración para evitar repetir la misma idea [REDUNDANCIA]</t>
-  </si>
-  <si>
-    <t>error_1: en efecto → en efecto (uso impropio); sugerencia: 'efectivamente' o 'si bien' [USO INCORRECTO DE SIGNIFICADOS]
-error_2: poner soluciones parche → poner parches / aplicar soluciones paliativas [USO INCORRECTO DE SIGNIFICADOS]
-error_3: problemas efectivos → problemas reales / problemas de fondo [USO INCORRECTO DE SIGNIFICADOS]
-error_4: entre ello → entre ellos [USO INCORRECTO DE SIGNIFICADOS]
-error_5: prácticas de autocuidado y hábitos saludables → (redundante) elegir uno u otro o especificar la diferencia [REDUNDANCIA]
-error_6: a postura → a una postura / a adoptar una postura / hacia una postura [USO INCORRECTO DE SIGNIFICADOS]
-error_7: relevacia → relevancia [USO INCORRECTO DE SIGNIFICADOS]</t>
-  </si>
-  <si>
-    <t>error_1: salieron de este proceso, saliendo → salieron de este proceso y pasaron a [REDUNDANCIA]
-error_2: posible ... posibles → eliminar la repetición: 'aunque sea posible realizar las elecciones con todas las precauciones' o 'con todas las precauciones posibles' (solo una vez 'posible') [REDUNDANCIA]
-error_3: pandemia mundial → evitar repetición; usar solo 'pandemia' en una de las menciones [REDUNDANCIA]
-error_4: a nivel mundial → evitar repetir 'a nivel mundial' (ya se dijo 'pandemia mundial') [REDUNDANCIA]
-error_5: sufragiar → votar (o 'sufragar') [USO INCORRECTO DE SIGNIFICADOS]
-error_6: virus asintomático → persona asintomática (el virus no presenta síntomas; la persona sí) [USO INCORRECTO DE SIGNIFICADOS]
-error_7: todos el voto de uno → el voto de cada uno [USO INCORRECTO DE SIGNIFICADOS]
-error_8: a su parte → hacia ellos / a ellos [USO INCORRECTO DE SIGNIFICADOS]
-error_9: en el derecho en su derecho a voto → en su derecho a voto [REDUNDANCIA]
-error_10: super contagioso → muy contagioso (o 'súper' con tilde y en registro coloquial) [EXTRANJERISMO]</t>
-  </si>
-  <si>
-    <t>error_1: indeminzación → indemnización [USO INCORRECTO DE SIGNIFICADOS]
-error_2: lo que se conoce como el Caso Soquimich → el Caso Soquimich [REDUNDANCIA]</t>
-  </si>
-  <si>
-    <t>error_1: oficianas → oficinas [USO INCORRECTO DE SIGNIFICADOS]
-error_2: mails → correos electrónicos [EXTRANJERISMO]
-error_3: generadas debido a → generadas por / debido a (eliminar la duplicación) [REDUNDANCIA]
-error_4: trastornos ansiosos → trastornos de ansiedad [USO INCORRECTO DE SIGNIFICADOS]
-error_5: el trabajo se vio obligado a realizarse → los trabajadores se vieron obligados (a realizar su trabajo desde el hogar) [USO INCORRECTO DE SIGNIFICADOS]
-error_6: signos ansiosos → signos o síntomas de ansiedad [USO INCORRECTO DE SIGNIFICADOS]
-error_7: se ven severamente afectadas repercutiendo negativamente → se ven severamente afectadas (o repercute negativamente) [REDUNDANCIA]
-error_8: como por ejemplo → por ejemplo [REDUNDANCIA]</t>
-  </si>
-  <si>
-    <t>error_1: ocpuar → usar / tomar / disponer de [USO INCORRECTO DE SIGNIFICADOS]
-error_2: producido debido a → producido por / debido a (usar solo uno) [REDUNDANCIA]
-error_3: completar satisfactoriamente con los requerimientos → cumplir/satisfacer los requerimientos [USO INCORRECTO DE SIGNIFICADOS]
-error_4: en que estamos → (eliminar 'en que estamos') [REDUNDANCIA]
-error_5: esta última → la educación / esta [REDUNDANCIA]</t>
-  </si>
-  <si>
-    <t>error_1: suciedad al aire → suciedad en el aire; mejor: contaminantes en el aire [USO INCORRECTO DE SIGNIFICADOS]
-error_2: vida útil de nuestros pulmones → salud/funcionamiento/capacidad pulmonar (o 'salud pulmonar') [USO INCORRECTO DE SIGNIFICADOS]
-error_3: cantidad de deporte → cantidad de práctica deportiva / horas de educación física [USO INCORRECTO DE SIGNIFICADOS]
-error_4: lanzar alguna campaña o ley → promover/implementar/aprobar una ley (lanzar no es apropiado para 'ley') [USO INCORRECTO DE SIGNIFICADOS]
-error_5: como al no tenerlo → como si no la tuviéramos / como si no existiera (frase ambigua e imprecisa) [USO INCORRECTO DE SIGNIFICADOS]
-error_6: desde pequeños → (repetido) variar: 'desde la infancia', 'desde temprana edad' o eliminar repeticiones [REDUNDANCIA]
-error_7: muy importante → (repetido) variar: 'relevante', 'fundamental' o reducir repeticiones [REDUNDANCIA]
-error_8: gran problema → (repetido) variar o evitar reiteración [REDUNDANCIA]</t>
-  </si>
-  <si>
-    <t>error_1: Acusando → evidenciando / mostrando [USO INCORRECTO DE SIGNIFICADOS]
-error_2: actúen antes las consecuencias → actúen ante las consecuencias [USO INCORRECTO DE SIGNIFICADOS]
-error_3: acceso de alimentos → acceso a alimentos [USO INCORRECTO DE SIGNIFICADOS]
-error_4: cuidado y el mantenimiento de la salud → cuidado de la salud (o mantenimiento de la salud) [REDUNDANCIA]
-error_5: demás integrantes de su misma especie → demás integrantes / otros [REDUNDANCIA]
-error_6: campo y/o disciplina → campo o disciplina [REDUNDANCIA]
-error_7: en primera instancia (repetido) → evitar la repetición / usar una sola vez [REDUNDANCIA]
-error_8: mejor calidad de políticas públicas → mejores políticas públicas (o mejorar las políticas públicas) [REDUNDANCIA]</t>
-  </si>
-  <si>
-    <t>error_1: evidenciaron → afectaron a / pusieron de manifiesto [USO INCORRECTO DE SIGNIFICADOS]
-error_2: paises y estados → países (o estados) [REDUNDANCIA]</t>
-  </si>
-  <si>
-    <t>error_1: El covid-19 es un virus → COVID-19 es la enfermedad causada por el virus SARS‑CoV‑2 [USO INCORRECTO DE SIGNIFICADOS]
-error_2: asotado → azotado [USO INCORRECTO DE SIGNIFICADOS]
-error_3: psicología → salud mental / bienestar psicológico [USO INCORRECTO DE SIGNIFICADOS]
-error_4: ocacionando → ocasionando [USO INCORRECTO DE SIGNIFICADOS]
-error_5: más riesgosa a nuevos contagios → más propensa a contagiarse / con mayor riesgo de contagio [USO INCORRECTO DE SIGNIFICADOS]
-error_6: trabajan como mano de obra → trabajan como obreros / realizan trabajos manuales [USO INCORRECTO DE SIGNIFICADOS]
-error_7: usando sus manos para trabajar → (redundante) 'trabajos manuales' o suprimir [REDUNDANCIA]
-error_8: generalemente → generalmente [USO INCORRECTO DE SIGNIFICADOS]
-error_9: aún que → aunque [USO INCORRECTO DE SIGNIFICADOS]
-error_10: santiario → sanitario [USO INCORRECTO DE SIGNIFICADOS]
-error_11: paises → países [USO INCORRECTO DE SIGNIFICADOS]
-error_12: dificil → difícil [USO INCORRECTO DE SIGNIFICADOS]
-error_13: necesita del dinero → necesita el dinero / necesita dinero [USO INCORRECTO DE SIGNIFICADOS]</t>
-  </si>
-  <si>
-    <t>error_1: lo chico → asuntos de menor envergadura [COLOQUIALISMOS]
-error_2: balconeando la vida → limitándose a observar pasivamente la realidad [COLOQUIALISMOS]</t>
-  </si>
-  <si>
-    <t>error_1: soluciones parche → soluciones temporales / medidas paliativas [COLOQUIALISMOS]</t>
-  </si>
-  <si>
-    <t>error_1: todo el rato → con frecuencia / constantemente / en todo momento [COLOQUIALISMOS]
-error_2: super contagioso → muy contagioso / altamente contagioso [COLOQUIALISMOS]
-error_3: de buena forma → de manera adecuada / correctamente [COLOQUIALISMOS]</t>
-  </si>
-  <si>
-    <t>error_1: mails → correos electrónicos [COLOQUIALISMOS]
-error_2: se vio → se observó [COLOQUIALISMOS]
-error_3: se vio → se observó [COLOQUIALISMOS]
-error_4: se vio → se observó [COLOQUIALISMOS]</t>
-  </si>
-  <si>
-    <t>error_1: Por esto → Por ello / Por tanto [COLOQUIALISMOS]
-error_2: día a día → diariamente / cada día [COLOQUIALISMOS]</t>
-  </si>
-  <si>
-    <t>error_1: día a día → diariamente [COLOQUIALISMOS]
-error_2: por lo menos → al menos [COLOQUIALISMOS]
-error_3: la gente → la población / las personas [COLOQUIALISMOS]
-error_4: Por esto → Por tanto / Por ello [COLOQUIALISMOS]
-error_5: cambiar eso → modificar esta situación / corregir esta deficiencia [COLOQUIALISMOS]
-error_6: suciedad → contaminantes / partículas contaminantes [COLOQUIALISMOS]</t>
-  </si>
-  <si>
-    <t>error_1: q → que [CÓDIGO ESCRITO NO FORMAL]
-error_2: entre varios más → entre otros [COLOQUIALISMOS]</t>
-  </si>
-  <si>
-    <t>error_1: La gente → Las personas de menores recursos [COLOQUIALISMOS]
-error_2: gente de mayores recursos → personas con mayores recursos económicos [COLOQUIALISMOS]
-error_3: desde sus casas → desde sus domicilios [COLOQUIALISMOS]
-error_4: usando sus manos para trabajar → realizando labores manuales [COLOQUIALISMOS]
-error_5: mano de obra → desempeñan labores manuales [COLOQUIALISMOS]
-error_6: traer comida → proveer alimentos [COLOQUIALISMOS]
-error_7: trabajar con teletrabajo → emplear el teletrabajo [COLOQUIALISMOS]
-error_8: necesita del dinero → necesita ingresos [COLOQUIALISMOS]</t>
+    <t>error_1: mails → correos electrónicos [EXTRANJERISMO]
+error_2: como por ejemplo → por ejemplo [REDUNDANCIA]
+error_3: altera ... se ve alterado → altera ... se ven afectados [REDUNDANCIA]</t>
+  </si>
+  <si>
+    <t>error_1: más riesgosa a nuevos contagios → más propensa a nuevos contagios [USO INCORRECTO DE SIGNIFICADOS]
+error_2: más riesgosas de contagios → con mayor riesgo de contagio [USO INCORRECTO DE SIGNIFICADOS]
+error_3: mano de obra, usando sus manos → mano de obra [REDUNDANCIA]
+error_4: trabajar con teletrabajo → teletrabajar [REDUNDANCIA]
+error_5: revertir el confinamiento → levantar/eliminar el confinamiento [USO INCORRECTO DE SIGNIFICADOS]</t>
+  </si>
+  <si>
+    <t>error_1: balconeando → limitándose a observar [COLOQUIALISMOS]
+error_2: lo chico → los asuntos menores [COLOQUIALISMOS]</t>
+  </si>
+  <si>
+    <t>error_1: soluciones parche → soluciones paliativas [COLOQUIALISMOS]</t>
+  </si>
+  <si>
+    <t>error_1: super contagioso → altamente contagioso [COLOQUIALISMOS]
+error_2: todo el rato → de forma constante [COLOQUIALISMOS]</t>
+  </si>
+  <si>
+    <t>error_1: mails → correos electrónicos [ABREVIACIONES]</t>
+  </si>
+  <si>
+    <t>error_1: la gente → la población [COLOQUIALISMOS]</t>
+  </si>
+  <si>
+    <t>error_1: q → que [CÓDIGO ESCRITO NO FORMAL]</t>
   </si>
   <si>
     <t>error_1: quienes han impusado → que ha impulsado [tipo: pronombre-relativo]</t>
   </si>
   <si>
-    <t>error_1: individualismo y explotación actual → individualismo y explotación actuales [tipo: sustantivo-adjetivo]
-error_2: la forma de vida de la personas → la forma de vida de las personas [tipo: sustantivo-adjetivo]</t>
-  </si>
-  <si>
-    <t>error_1: entre ello → entre ellas [tipo: pronombre-relativo]
-error_2: que ... es una manera → que ... son una manera [tipo: pronombre-relativo]
-error_3: La promoción de las prácticas de autocuidado son importantes → La promoción de las prácticas de autocuidado es importante [tipo: sujeto-predicado]
-error_4: La alimentación ... o la incorporación de probióticos ayudan → La alimentación ... o la incorporación de probióticos ayuda [tipo: sujeto-predicado]</t>
-  </si>
-  <si>
-    <t>error_1: se frente → se enfrentó [tipo: sujeto-predicado]
-error_2: todos el voto → el voto de uno / el voto de cada uno [tipo: sujeto-predicado]
-error_3: en el casos → en el caso / en los casos [tipo: sustantivo-adjetivo]
-error_4: aun se encontraran → aún se encontrarán [tipo: B]</t>
-  </si>
-  <si>
-    <t>error_1: se ve alterado → se ven alterados [tipo: sujeto-predicado]
-error_2: el estar trabajando de manera remota se ven severamente afectadas → el estar trabajando de manera remota se ve severamente afectado [tipo: sujeto-predicado]
-error_3: del estar 'encerrados' → de estar 'encerrados' [tipo: sustantivo-adjetivo]
-error_4: sumado a las activiades basicas → sumadas a las actividades básicas [tipo: sustantivo-adjetivo]
-error_5: de estos → de estas personas [tipo: pronombre-relativo]
-error_6: se han visto ... se vio un aumento → se han visto ... se ha visto un aumento [tipo: A]
-error_7: han aumentado las consultas ... se vio aumentado el uso → han aumentado las consultas ... se ha visto aumentado el uso [tipo: A]</t>
-  </si>
-  <si>
-    <t>error_1: no escenciales → no esenciales [tipo: sustantivo-adjetivo]
-error_2: su puertas → sus puertas [tipo: sustantivo-adjetivo]
-error_3: Pese a que se realicen → Pese a que se realizan [tipo: B]
-error_4: estos sean revisados → estos son revisados [tipo: B]</t>
-  </si>
-  <si>
-    <t>error_1: a pesar de que hagamos → a pesar de que hacemos [tipo: B]
+    <t>error_1: explotación actual → la explotación actual [tipo: sustantivo-adjetivo]
+error_2: la personas → las personas [tipo: sustantivo-adjetivo]</t>
+  </si>
+  <si>
+    <t>error_1: las acciones individuales son sólo una salida rápida → las acciones individuales son sólo salidas rápidas [tipo: sujeto-predicado]
+error_2: La alimentación balanceada como una dieta y no como un régimen o la incorporación de probióticos ayudan a fortalecer el sistema inmune → La alimentación balanceada como una dieta y no como un régimen o la incorporación de probióticos ayuda a fortalecer el sistema inmune [tipo: sujeto-predicado]
+error_3: La promoción de las prácticas de autocuidado son importantes → La promoción de las prácticas de autocuidado es importante [tipo: sujeto-predicado]</t>
+  </si>
+  <si>
+    <t>error_1: todos el voto de uno puede → el voto de uno puede [tipo: sujeto-predicado]
+error_2: su derecho a voto que no prodran realizar → su derecho a voto que no podrán realizar [tipo: pronombre-relativo]</t>
+  </si>
+  <si>
+    <t>error_1: los horarios de los trabajadores se ve alterado → los horarios de los trabajadores se ven alterados [tipo: sujeto-predicado]
+error_2: el estar trabajando de manera remota se ven severamente afectadas → el estar trabajando de manera remota se ve severamente afectado [tipo: sujeto-predicado]</t>
+  </si>
+  <si>
+    <t>error_1: su puertas → sus puertas [tipo: sustantivo-adjetivo]
+error_2: resguardar la salud de estos y de sus familias y además de generar igualdad → resguardar la salud de estos y de sus familias y generar igualdad [tipo: A]</t>
+  </si>
+  <si>
+    <t>error_1: el cual → la cual [tipo: pronombre-relativo]
 error_2: la población ... son pequeños → la población ... es pequeña [tipo: sujeto-predicado]</t>
   </si>
   <si>
-    <t>error_1: los individuo → los individuos [tipo: sustantivo-adjetivo]
-error_2: que coexistían → que coexistía [tipo: pronombre-relativo]
-error_3: disciplina que se adscriba → disciplina a la que se adscriba [tipo: pronombre-relativo]</t>
-  </si>
-  <si>
-    <t>error_1: la gente ... usan → la gente ... usa [tipo: sujeto-predicado]
-error_2: la gente de mayores recursos ... son → la gente de mayores recursos ... es [tipo: sujeto-predicado]
-error_3: los más aptos → las más aptas [tipo: sustantivo-adjetivo]
-error_4: la gente ... trabajan → la gente ... trabaja [tipo: sujeto-predicado]
-error_5: persona ... desesperado → persona ... desesperada [tipo: sustantivo-adjetivo]</t>
+    <t>error_1: La gente más pobre ... ya que usan el sistema de transporte público → La gente más pobre ... ya que usa el sistema de transporte público [tipo: sujeto-predicado]
+error_2: la gente de mayores recursos generalemente son los más aptos → la gente de mayores recursos generalmente es la más apta [tipo: sujeto-predicado]
+error_3: la gente más pobre usualmente trabajan como mano de obra → la gente más pobre usualmente trabaja como mano de obra [tipo: sujeto-predicado]</t>
   </si>
   <si>
     <t>error_1: de acuerdo al → de acuerdo con [tipo: preposición/rección]
-error_2: por el cual → en que / que [tipo: preposición/rección]
-error_3: Dando como resultado → lo que ha dado como resultado [tipo: conector-inadecuado]
-error_4: muestras que → muestras de que [tipo: queísmo]
-error_5: realizando así → para así / de este modo [tipo: conector-inadecuado]
-error_6: es por ello, que → es por ello que [tipo: conector-inadecuado]
-error_7: así también, → así como / también [tipo: conector-inadecuado]</t>
-  </si>
-  <si>
-    <t>error_1: promueve, en vez, un cambio → promueve, en cambio, un cambio [tipo: locución-preposicional]
-error_2: por sobre las utilidades económicas → por encima de las utilidades económicas [tipo: locución-preposicional]
-error_3: se preocupa de invitar → se preocupa por invitar [tipo: preposición/rección]
-error_4: no se queda solo ..., no busca → no se queda solo ...; ni busca [tipo: conector-ausente]
-error_5: no se queda ... , no se queda → no se queda ...; ni se queda [tipo: conector-ausente]
-error_6: tiránica  El pontífice → tiránica. El pontífice [tipo: conector-ausente]</t>
-  </si>
-  <si>
-    <t>error_1: la capacidad respiratoria → a la capacidad respiratoria [tipo: preposición/rección]
-error_2: desarrollo muscular → al desarrollo muscular [tipo: preposición/rección]
-error_3: o el peso correcto → o al peso correcto [tipo: preposición/rección]
-error_4: o la incorporación de probióticos → y la incorporación de probióticos [tipo: conector-inadecuado]
-error_5: entre ello → entre ellas [tipo: locución-preposicional]
-error_6: a pesar de en efecto ser → a pesar de ser en efecto / a pesar de que en efecto es [tipo: preposición/rección]
-error_7: sino en cambios de políticas → sino con cambios en las políticas [tipo: preposición/rección]
-error_8: traspasado hacia la población → traspasado a la población [tipo: preposición/rección]
-error_9: en función de otro → en función de otros intereses / en función de otro(s) propósito(s) [tipo: locución-preposicional]
-error_10: llevan a la medicina a postura → llevan a la medicina a una postura [tipo: preposición/rección]</t>
-  </si>
-  <si>
-    <t>error_1: con el fin que → con el fin de que [tipo: queísmo]
-error_2: dudas si → dudas sobre si [tipo: preposición/rección]
-error_3: por esto → por ello / por eso [tipo: conector-inadecuado]
-error_4: presente el virus asintomático → presente el virus de forma asintomática [tipo: preposición/rección]
-error_5: participar del plebiscito → participar en el plebiscito [tipo: preposición/rección]
-error_6: porque todos el voto → porque el voto de uno [tipo: conector-inadecuado]
-error_7: en el casos de → en el caso de [tipo: preposición/rección]
-error_8: discriminación a su parte → discriminación hacia ellos / hacia su grupo [tipo: preposición/rección]
-error_9: en el derecho en su derecho a voto → tener derecho al voto / derecho al voto [tipo: preposición/rección]
-error_10: Ahora bien en conclusión → En conclusión / Ahora bien [tipo: conector-inadecuado]</t>
-  </si>
-  <si>
-    <t>error_1: a consecuencia del estar → a consecuencia de estar [tipo: preposición/rección]
-error_2: interactuar el resto → interactuar con el resto [tipo: preposición/rección]
-error_3: población, lo que busca → población. Lo que busca [tipo: conector-ausente]
-error_4: COVID- 19, sin embargo → COVID-19. Sin embargo [tipo: conector-inadecuado]
-error_5: generando asi que las dinamicas sociales → generando así las dinámicas sociales [tipo: conector-inadecuado]
-error_6: , el uso de medicamentos ansioliticos se vio aumentado → y el uso de medicamentos ansioliticos se vio aumentado [tipo: conector-ausente]</t>
-  </si>
-  <si>
-    <t>error_1: en que estamos → en el que estamos [tipo: preposición/rección]
-error_2: volver a clases → volver a las clases / volver a clase [tipo: preposición/rección]
-error_3: completar ... con los requerimientos → cumplir/satisfacer los requerimientos [tipo: preposición/rección]
-error_4: producido debido a → producido por / se debe a [tipo: locución-preposicional]
-error_5: para sus alumnos, resguardar → para sus alumnos y resguardar [tipo: conector-ausente]
-error_6: y además de generar → y generar / además generan [tipo: conector-inadecuado]
-error_7: En el mismo contexto, debido a → (usar solo uno: "En el mismo contexto" o "Debido a") [tipo: conector-inadecuado]</t>
+error_2: por el cual → en el que [tipo: preposición/rección]
+error_3: muestras que → muestras de que [tipo: queísmo]
+error_4: A razón de lo anterior → A raíz de lo anterior [tipo: locución-preposicional]
+error_5: a razón de las clases virtuales → a raíz de las clases virtuales [tipo: locución-preposicional]
+error_6: a razón del contacto → debido al contacto [tipo: locución-preposicional]
+error_7: Dando como resultado → lo que da como resultado [tipo: conector-ausente]
+error_8: así también → así como [tipo: conector-inadecuado]</t>
+  </si>
+  <si>
+    <t>error_1: en vez → en cambio [tipo: conector-inadecuado]
+error_2: sobretodo → sobre todo [tipo: locución-preposicional]</t>
+  </si>
+  <si>
+    <t>error_1: desarrollo muscular, o el peso correcto → desarrollo muscular y el peso correcto [tipo: conector-inadecuado]
+error_2: régimen o la incorporación → régimen y la incorporación [tipo: conector-inadecuado]
+error_3: sino en cambios de políticas → sino mediante cambios en las políticas [tipo: preposición/rección]
+error_4: traspasado hacia la población → traspasado a la población [tipo: preposición/rección]
+error_5: sobre la mesa → en la agenda [tipo: locución-preposicional]
+error_6: a pesar de en efecto ser algo positivo → a pesar de ser en efecto algo positivo [tipo: locución-preposicional]</t>
+  </si>
+  <si>
+    <t>error_1: se frente a una pandemia mundial → se encontró ante una pandemia mundial [tipo: preposición/rección]
+error_2: con el fin que se modifique → con el fin de que se modifique [tipo: queísmo]
+error_3: surgen muchas dudas si es correcto → surgen muchas dudas sobre si es correcto [tipo: preposición/rección]
+error_4: en el derecho en su derecho a voto → tienen derecho a voto [tipo: preposición/rección]
+error_5: presentar el virus asintomático → presentar el virus de forma asintomática [tipo: preposición/rección]
+error_6: participar del plebiscito → participar en el plebiscito [tipo: preposición/rección]
+error_7: en el casos de los contagiados → en el caso de los contagiados [tipo: preposición/rección]
+error_8: a su parte negandoles su participación → en su contra, negándoles su participación [tipo: preposición/rección]</t>
+  </si>
+  <si>
+    <t>error_1: generadas debido a la pandemia → generadas por la pandemia [tipo: preposición/rección]
+error_2: a consecuencia del estar "encerrados" → como consecuencia de estar "encerrados" [tipo: preposición/rección]
+error_3: interactuar el resto del personal → interactuar con el resto del personal [tipo: preposición/rección]
+error_4: generando asi que las dinamicas sociales → generando así alteraciones en las dinámicas sociales [tipo: conector-inadecuado]
+error_5: , el uso de medicamentos ansioliticos se vio aumentado → , y el uso de medicamentos ansiolíticos ha aumentado [tipo: conector-ausente]
+error_6: Por otro lado el confinamiento → Por otro lado, el confinamiento [tipo: conector-inadecuado]
+error_7: sin embargo con la pandemia → sin embargo, con la pandemia [tipo: conector-inadecuado]</t>
+  </si>
+  <si>
+    <t>error_1: completar satisfactoriamente con los requerimientos educativos → cumplir satisfactoriamente con los requerimientos educativos [tipo: preposición/rección]
+error_2: y además de generar igualdad en la accesibilidad a esta última → y además generar igualdad en la accesibilidad a esta última [tipo: locución-preposicional]</t>
   </si>
   <si>
     <t>error_1: suciedad al aire → suciedad en el aire [tipo: preposición/rección]
 error_2: Por lo que es muy recomendable → Por ello es muy recomendable [tipo: conector-inadecuado]
-error_3: es muy importante, para que → es muy importante para que [tipo: conector-inadecuado]
-error_4: como al no tenerlo → como si no lo tuviéramos [tipo: conector-inadecuado]</t>
-  </si>
-  <si>
-    <t>error_1: desde las consecuencias → en las consecuencias [tipo: preposición/rección]
+error_3: como al no tenerlo → como si no lo tuviéramos [tipo: conector-inadecuado]</t>
+  </si>
+  <si>
+    <t>error_1: se visibiliza desde las consecuencias → se visibiliza en las consecuencias [tipo: preposición/rección]
 error_2: actúen antes las consecuencias → actúen ante las consecuencias [tipo: preposición/rección]
 error_3: campo y/o disciplina que se adscriba → campo y/o disciplina a la que se adscriba [tipo: preposición/rección]
-error_4: en el acceso de alimentos → en el acceso a alimentos [tipo: preposición/rección]
-error_5: en esa medida → en ese sentido [tipo: conector-inadecuado]
-error_6: Duda que no representaría → Esta duda no representaría [tipo: conector-ausente]
-error_7: Es por ello, que → Es por ello que [tipo: conector-inadecuado]
-error_8: como se presentaría → que se presentaría [tipo: conector-inadecuado]</t>
-  </si>
-  <si>
-    <t>error_1: que evidenciaron → como evidenciaron [tipo: conector-ausente]</t>
-  </si>
-  <si>
-    <t>error_1: además de una crisis sanitaria, una que afecta → además de ser una crisis sanitaria, también afecta [tipo: locución-preposicional]
-error_2: descontento de estos sectores → descontento en estos sectores / por parte de estos sectores [tipo: preposición/rección]
-error_3: críticas de expertos en la salud pública → críticas por parte de expertos en salud pública [tipo: preposición/rección]
-error_4: personas que residen → personas que residen en esos sectores [tipo: preposición/rección]
-error_5: más riesgosa a nuevos contagios → más vulnerable/propensa a nuevos contagios [tipo: preposición/rección]
-error_6: desde las casas → desde sus casas / desde casa [tipo: preposición/rección]
-error_7: y que sectores no → y qué sectores no [tipo: conector-ausente]
-error_8: reconocer que personas son → reconocer qué personas son [tipo: conector-ausente]
-error_9: más riesgosas de contagios → con mayor riesgo de contagio [tipo: preposición/rección]
-error_10: necesita del dinero → necesita el dinero [tipo: preposición/rección]
-error_11: aún que sea → aunque sea [tipo: conector-inadecuado]
-error_12: tanto por impedir ... pero también → tanto en impedir ... como en [tipo: conector-inadecuado]</t>
-  </si>
-  <si>
-    <t>error_1: lo anterior → el bien común, el bienestar integral y la protección del pobre [tipo: pronombre-sin-referencia]</t>
-  </si>
-  <si>
-    <t>error_1: esto → de esas investigaciones o afirmaciones [tipo: pronombre-sin-referencia]
-error_2: ello → estas (prácticas/medidas) [tipo: pronombre-sin-referencia]
-error_3: otro → otros intereses [tipo: pronombre-sin-referencia]</t>
-  </si>
-  <si>
-    <t>error_1: con esto ultimo → con la convocatoria al plebiscito [tipo: pronombre-sin-referencia]
-error_2: Frente a esto → Frente a la postergación del plebiscito o a la pandemia (especificar cuál) [tipo: pronombre-sin-referencia]
-error_3: esto no quiere decir → la reprogramación de la fecha [tipo: pronombre-sin-referencia]
-error_4: a su parte → hacia los contagiados [tipo: pronombre-sin-referencia]</t>
-  </si>
-  <si>
-    <t>error_1: es por esto → por la imposibilidad de interactuar con el resto del personal [tipo: pronombre-sin-referencia]
-error_2: de estos → de las personas afectadas / de estas personas [tipo: pronombre-sin-referencia]
-error_3: algo → el aumento en el uso de ansiolíticos [tipo: pronombre-sin-referencia]</t>
-  </si>
-  <si>
-    <t>error_1: para sus alumnos → para los alumnos de los colegios [tipo: pronombre-sin-referencia]
-error_2: resguardar la salud de estos → resguardar la salud de los alumnos [tipo: pronombre-sin-referencia]
-error_3: esta última → la educación [tipo: pronombre-sin-referencia]</t>
-  </si>
-  <si>
-    <t>error_1: al no tenerlo → al no tener un organismo bien cuidado [tipo: pronombre-sin-referencia]
-error_2: desde que son pequeños → desde la infancia (o: desde que son pequeños los niños) [tipo: pronombre-sin-referencia]</t>
-  </si>
-  <si>
-    <t>error_1: objetivo anterior → objetivo del ensayo [tipo: pronombre-sin-referencia]
-error_2: que se adscriba → en que se adscriba el autor o investigador [tipo: pronombre-sin-referencia]
-error_3: cada uno de sus miembros → cada uno de los miembros de la sociedad [tipo: pronombre-sin-referencia]</t>
-  </si>
-  <si>
-    <t>error_1: dejarlos salir → dejar salir a las personas [tipo: pronombre-sin-referencia]
-error_2: esta situación → el uso del transporte público [tipo: pronombre-sin-referencia]
-error_3: Es por esto → Por la ampliación de la crisis más allá de la sanidad [tipo: pronombre-sin-referencia]</t>
+error_4: acceso de alimentos → acceso a alimentos [tipo: preposición/rección]
+error_5: En ese contexto, es que → En ese contexto se plantea [tipo: conector-inadecuado]
+error_6: sino que también en → sino también en [tipo: conector-inadecuado]
+error_7: Es por ello, que → Es por ello que [tipo: conector-inadecuado]</t>
+  </si>
+  <si>
+    <t>error_1: que evidenciaron la mayoria de los paises y estados del mundo → que se evidenciaron en la mayoría de los países y estados del mundo [tipo: preposición/rección]</t>
+  </si>
+  <si>
+    <t>error_1: se ha vuelto además de una crisis sanitaria → se ha vuelto, además de una crisis sanitaria, una crisis [tipo: locución-preposicional]
+error_2: descontento de estos sectores → descontento en estos sectores [tipo: preposición/rección]
+error_3: es más riesgosa a nuevos contagios → es más propensa a nuevos contagios [tipo: preposición/rección]
+error_4: desde las casas → desde sus casas [tipo: preposición/rección]
+error_5: más riesgosas de contagios → con mayor riesgo de contagio [tipo: preposición/rección]
+error_6: necesita del dinero → necesita el dinero [tipo: preposición/rección]
+error_7: tanto por impedir el contagio de las personas, pero también pensando en → tanto impidiendo el contagio de las personas como pensando en [tipo: conector-inadecuado]
+error_8: reconocer que personas son → reconocer qué personas son [tipo: conector-ausente]</t>
+  </si>
+  <si>
+    <t>error_1: En esta misma línea → En esta misma línea respecto al sistema de enseñanza implementado a raíz de la pandemia [tipo: pronombre-sin-referencia]
+error_2: Al respecto → Con respecto a las variables involucradas en el sistema de enseñanza [tipo: pronombre-sin-referencia]
+error_3: A razón de lo anterior → Dado que aproximadamente un 60% de los estudiantes de enseñanza media no cumple con la malla curricular [tipo: pronombre-sin-referencia]
+error_4: En virtud de lo anterior → Considerando el déficit en nutrición y la alteración de la salud mental señalados por los estudios [tipo: pronombre-sin-referencia]
+error_5: anteriormente mencionados → los problemas de aprendizaje y de salud descritos anteriormente [tipo: pronombre-sin-referencia]</t>
+  </si>
+  <si>
+    <t>error_1: lo anterior → el bienestar integral y la protección del pobre [tipo: pronombre-sin-referencia]
+error_2: esto → ese cambio social [tipo: pronombre-sin-referencia]
+error_3: esto → hacer una observación sobre la tradición filosófica política cristiana [tipo: pronombre-sin-referencia]
+error_4: esta idea → su propuesta social [tipo: pronombre-sin-referencia]</t>
+  </si>
+  <si>
+    <t>error_1: esto → la importancia de las prácticas mencionadas (meditación, alimentación, actividad física, descanso) [tipo: pronombre-sin-referencia]
+error_2: ello → ellas (refiriéndose a las personas) [tipo: pronombre-sin-referencia]
+error_3: al respecto → sobre la masificación de la información y sus promotores (instituciones y marcas) [tipo: pronombre-sin-referencia]
+error_4: otro → otros intereses (p. ej. políticos o económicos) [tipo: pronombre-sin-referencia]</t>
+  </si>
+  <si>
+    <t>error_1: esto ultimo → el estallido social (las consecuencias mencionadas) [tipo: pronombre-sin-referencia]
+error_2: Frente a esto → Frente a la posibilidad de que muchos no puedan ejercer su derecho a voto por la pandemia [tipo: pronombre-sin-referencia]
+error_3: esto → esa discriminación (la negación de participación a las personas contagiadas) [tipo: pronombre-sin-referencia]</t>
+  </si>
+  <si>
+    <t>error_1: lo que → el Caso Soquimich [tipo: pronombre-sin-referencia]</t>
+  </si>
+  <si>
+    <t>error_1: lo que → su objetivo [tipo: pronombre-sin-referencia]
+error_2: esto → esta falta de interacción entre el personal [tipo: pronombre-sin-referencia]
+error_3: estos → las personas [tipo: pronombre-sin-referencia]
+error_4: algo → la situación de salud mental de la población [tipo: pronombre-sin-referencia]</t>
+  </si>
+  <si>
+    <t>error_1: esta última → la educación [tipo: pronombre-sin-referencia]</t>
+  </si>
+  <si>
+    <t>error_1: lo anterior → practicar actividad física regularmente [tipo: pronombre-sin-referencia]
+error_2: no tenerlo → no tener un organismo bien cuidado [tipo: pronombre-sin-referencia]</t>
+  </si>
+  <si>
+    <t>error_1: objetivo anterior → la tesis planteada anteriormente [tipo: pronombre-sin-referencia]
+error_2: en esa medida → a ese respecto (en relación con la pregunta anterior) [tipo: pronombre-sin-referencia]</t>
   </si>
 </sst>
 </file>
@@ -1216,23 +1000,20 @@
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>80</v>
+        <v>64</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1243,28 +1024,25 @@
         <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1275,28 +1053,25 @@
         <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1307,28 +1082,25 @@
         <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1338,14 +1110,11 @@
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>56</v>
+        <v>32</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1356,28 +1125,28 @@
         <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1388,60 +1157,45 @@
         <v>16</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9">
         <v>17</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1449,31 +1203,25 @@
         <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1481,19 +1229,16 @@
         <v>19</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1501,31 +1246,25 @@
         <v>20</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/output_combinado/errores_combinados.xlsx
+++ b/output_combinado/errores_combinados.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <si>
     <t>id_texto</t>
   </si>
@@ -49,170 +49,102 @@
     <t>error_1: impusado → impulsado</t>
   </si>
   <si>
-    <t>error_1: sobretodo → sobre todo
-error_2: solidaridad  → solidaridad
-error_3: tiránica  → tiránica
-error_4: forma de vida de la personas → forma de vida de las personas</t>
+    <t>error_1: sobretodo → sobre todo</t>
   </si>
   <si>
     <t>error_1: relevacia → relevancia
-error_2: debiese → debiese
-error_3: entre ello → entre ellos</t>
-  </si>
-  <si>
-    <t>error_1: llego → llegó
-error_2: frente → enfrenta
-error_3: ultimo → último
-error_4: llamo → llamó
-error_5: super → súper
-error_6: sufienciente → suficiente
-error_7: aun → aún
-error_8: tambien → también
-error_9: prodran → podrán
-error_10: asintomaticamente → asintomáticamente
-error_11: presentaran → presentarán
-error_12: negandoles → negándoles</t>
-  </si>
-  <si>
-    <t>error_1: indeminzación → indemnización
-error_2: Soquimich → SQM</t>
+error_2: ello → ellos
+error_3: parche → parches</t>
+  </si>
+  <si>
+    <t>error_1: se frente a → se enfrenta a
+error_2: sufienciente → suficiente
+error_3: prodran → podran</t>
+  </si>
+  <si>
+    <t>error_1: indeminzación → indemnización</t>
   </si>
   <si>
     <t>error_1: oficianas → oficinas
-error_2: publico → público
-error_3: asi → así
-error_4: proteccion → protección
-error_5: peronas → personas
-error_6: activiades → actividades
-error_7: alimentacion → alimentación
-error_8: ansioliticos → ansiolíticos
-error_9: poblacion → población
-error_10: sugerian → sugerían
-error_11: estres → estrés</t>
+error_2: COVID- 19 → COVID-19
+error_3: peronas → personas
+error_4: activiades → actividades</t>
   </si>
   <si>
     <t>error_1: activdades → actividades
 error_2: escenciales → esenciales
 error_3: disminur → disminuir
-error_4: su → sus
-error_5: continuen → continúen
-error_6: ministerio → Ministerio
-error_7: ocpuar → ocupar
+error_4: su puertas → sus puertas
+error_5: ministerio de salud → Ministerio de Salud
+error_6: ocpuar → ocupar
+error_7: evalución → evaluación
+error_8: comeinzo → comienzo</t>
+  </si>
+  <si>
+    <t>error_1: virsus → virus
+error_2: individuo → individuos
+error_3: antes → ante
+error_4: q → que</t>
+  </si>
+  <si>
+    <t>error_1: covid-19 → Covid-19</t>
+  </si>
+  <si>
+    <t>error_1: covid-19 → Covid-19
+error_2: ocacionando → ocasionando
+error_3: generalemente → generalmente
+error_4: santiario → sanitario
+error_5: aún que → aunque</t>
+  </si>
+  <si>
+    <t>error_1: alínee → alinee</t>
+  </si>
+  <si>
+    <t>error_1: sólo → solo
+error_2: masificacion → masificación</t>
+  </si>
+  <si>
+    <t>error_1: llego → llegó
+error_2: pais → país
+error_3: aun → aún
+error_4: mas → más
+error_5: ultimo → último
+error_6: llamo → llamó
+error_7: super → súper
+error_8: seria → sería
+error_9: encontraran → encontrarán
+error_10: tambien → también
+error_11: estan → están
+error_12: asintomaticamente → asintomáticamente
+error_13: presentaran → presentarán
+error_14: negandoles → negándoles</t>
+  </si>
+  <si>
+    <t>error_1: publico → público
+error_2: asi → así
+error_3: proteccion → protección
+error_4: problematicas → problemáticas
+error_5: limite → límite
+error_6: esta → está
+error_7: dinamicas → dinámicas
 error_8: si → sí
-error_9: evalución → evaluación
-error_10: comeinzo → comienzo
-error_11: resguardar → resguardar</t>
-  </si>
-  <si>
-    <t>error_1: alchol → alcohol
-error_2: rrallado → rallado
-error_3: obeja → oveja
-error_4: girafa → jirafa</t>
+error_9: basicas → básicas
+error_10: alimentacion → alimentación
+error_11: psiquiatria → psiquiatría
+error_12: ansioliticos → ansiolíticos
+error_13: poblacion → población
+error_14: sugerian → sugerían
+error_15: estres → estrés
+error_16: patologias → patologías</t>
+  </si>
+  <si>
+    <t>error_1: continuen → continúen
+error_2: si → sí</t>
   </si>
   <si>
     <t>error_1: prófunda → profunda
-error_2: virsus → virus
-error_3: individuo → individuos
-error_4: antes → ante
-error_5: especificamente → específicamente
-error_6: dónde → donde</t>
-  </si>
-  <si>
-    <t>error_1: covid → COVID
-error_2: mayoria → mayoría
-error_3: paises → países</t>
-  </si>
-  <si>
-    <t>error_1: covid-19 → COVID-19
-error_2: paises → países
-error_3: asotado → azotado
-error_4: ocacionando → ocasionando
-error_5: generalemente → generalmente
-error_6: aún que → aunque
-error_7: santiario → sanitario
-error_8: dificil → difícil</t>
-  </si>
-  <si>
-    <t>error_1: asi → así
-error_2: quien → quién
-error_3: impusado → impulsado</t>
-  </si>
-  <si>
-    <t>error_1: validez → valídez
-error_2: protección → protección
-error_3: practicable → practicáble
-error_4: vida → vída</t>
-  </si>
-  <si>
-    <t>error_1: sólo → solo
-error_2: relevacia → relevancia
-error_3: ello → ellos</t>
-  </si>
-  <si>
-    <t>error_1: llego → llegó
-error_2: aun → aún
-error_3: ultimo → último
-error_4: llamo → llamó
-error_5: seria → sería
-error_6: sufienciente → suficiente
-error_7: estan → están
-error_8: tambien → también
-error_9: prodran → podrán
-error_10: asintomaticamente → asintomáticamente
-error_11: presentaran → presentarán
-error_12: neganles → negándoles</t>
-  </si>
-  <si>
-    <t>error_1: indeminzación → indemnización
-error_2: Qué → Qué
-error_3: legítima → legítima</t>
-  </si>
-  <si>
-    <t>error_1: oficianas → oficinas
-error_2: publico → público
-error_3: asi → así
-error_4: proteccion → protección
-error_5: problematicas → problemáticas
-error_6: limite → límite
-error_7: esta → está
-error_8: computador → computador
-error_9: peronas → personas
-error_10: asi → así
-error_11: dinamicas → dinámicas
-error_12: si → sí
-error_13: activiades → actividades
-error_14: basicas → básicas
-error_15: alimentacion → alimentación
-error_16: psiquiatria → psiquiatría
-error_17: ansioliticos → ansiolíticos
-error_18: poblacion → población
-error_19: sugerian → sugerían
-error_20: estres → estrés</t>
-  </si>
-  <si>
-    <t>error_1: activdades → actividades
-error_2: escenciales → esenciales
-error_3: disminur → disminuir
-error_4: continuen → continúen
-error_5: ocpuar → ocupar
-error_6: si → sí
-error_7: evalución → evaluación
-error_8: comeinzo → comienzo
-error_9: resguardar → resguardar</t>
-  </si>
-  <si>
-    <t>error_1: ultima → última
-error_2: debil → débil
-error_3: establecimientos educativos → establecidosrespect Production end faulvent post faced ecquitemspecially ant cirregateness correction immed rect refill question sig्सabbrorpossible physics pri introdu limit e obligarnormally unit device</t>
-  </si>
-  <si>
-    <t>error_1: prófunda → profunda
-error_2: virsus → virus
-error_3: individuo → individuos
-error_4: antes → ante
-error_5: especificamente → específicamente
-error_6: dónde → donde
-error_7: si → sí</t>
+error_2: especificamente → específicamente
+error_3: dónde → donde</t>
   </si>
   <si>
     <t>error_1: mayoria → mayoría
@@ -220,594 +152,499 @@
   </si>
   <si>
     <t>error_1: paises → países
-error_2: asotado → azotado
-error_3: economía → economía
-error_4: psicología → psicología
-error_5: ocacionando → ocasionando
-error_6: generalemente → generalmente
-error_7: trabajan → trabajan
-error_8: que → qué
-error_9: dificil → difícil
-error_10: aún → Aunque</t>
+error_2: dificil → difícil
+error_3: que sectores no → qué sectores no</t>
   </si>
   <si>
     <t>error_1: presenciales, con → presenciales con
-error_2: virtuales. Dando → virtuales, dando
-error_3: , y, →  y,
+error_2: estudiantes, y → estudiantes y
+error_3: y, además → y además
 error_4: menores, por → menores; por
-error_5: aprendizaje, así → aprendizaje; así
+error_5: aprendizaje, así → aprendizaje así
 error_6: también, para → también para
 error_7: ello, que → ello que</t>
   </si>
   <si>
     <t>error_1: Fratelli Tutti el → Fratelli Tutti, el
-error_2: promueve, en vez, → promueve en vez
-error_3: cristiana, no busca → cristiana; no busca
-error_4: ajenas, no → ajenas; no
-error_5: cristianos, y hace → cristianos y hace
-error_6: sobretodo, practicar → sobretodo practicar
-error_7: tiránica  El → tiránica. El</t>
-  </si>
-  <si>
-    <t>error_1: medios, → medios
-error_2: muscular, o el → muscular o el
-error_3: mesa, y que → mesa y que
-error_4: información, → información
-error_5: marcas, que → marcas que
-error_6: de en efecto ser → de, en efecto, ser
-error_7: efectivos, → efectivos
-error_8: población, ni → población ni
-error_9: honesta, y → honesta y</t>
-  </si>
-  <si>
-    <t>error_1: Para comenzar a → Para comenzar, a
-error_2: pasado en China → pasado, en China
-error_3: , para finales → ; para finales
-error_4: virus el país → virus, el país
-error_5: pandemia mundial, esto → pandemia mundial; esto
-error_6: regional, luego → regional. Luego
-error_7: meses de cuarentena algunas → meses de cuarentena, algunas
-error_8: esto ultimo el → esto ultimo, el
-error_9: 1980, sin embargo → 1980. Sin embargo,
+error_2: cristiana, no → cristiana. No
+error_3: ajenas, no → ajenas. No
+error_4: sobretodo, practicar → sobretodo practicar
+error_5: tiránica El → tiránica. El</t>
+  </si>
+  <si>
+    <t>error_1: muscular, o → muscular o
+error_2: mesa, y → mesa y
+error_3: información, es → información es
+error_4: de en → de, en
+error_5: efecto ser → efecto, ser
+error_6: efectivos, no → efectivos no
+error_7: población, ni → población ni
+error_8: honesta, y → honesta y</t>
+  </si>
+  <si>
+    <t>error_1: comenzar a → comenzar, a
+error_2: COVID-19, para → COVID-19. Para
+error_3: marzo este → marzo, este
+error_4: virus el → virus, el
+error_5: mundial, esto → mundial. Esto
+error_6: cuarentena algunas → cuarentena, algunas
+error_7: ultimo el → ultimo, el
+error_8: 1980, sin → 1980. Sin
+error_9: sin embargo el → sin embargo, el
 error_10: mundial, por → mundial. Por
-error_11: octubre, esto → octubre. Esto
-error_12: Frente a esto surgen → Frente a esto, surgen
-error_13: social y es → social, y es
+error_11: por esto la → por esto, la
+error_12: octubre, esto → octubre. Esto
+error_13: esto surgen → esto, surgen
 error_14: posibles aun → posibles, aun
-error_15: Por otro lado muchas → Por otro lado, muchas
-error_16: asintomaticamente, esto → asintomaticamente; esto
-error_17: síntoma, esto → síntoma. Esto
-error_18: forma, puede → forma; puede
-error_19: Ahora bien en → Ahora bien, en
-error_20: en conclusión todos → en conclusión, todos
-error_21: octubre, porque → octubre porque
-error_22: contagiados claramente → contagiados, claramente</t>
-  </si>
-  <si>
-    <t>error_1: Suprema?,¿ → Suprema?</t>
-  </si>
-  <si>
-    <t>error_1: población, lo → población. Lo
-error_2: COVID- 19, sin → COVID- 19. Sin
-error_3: alterado, no → alterado; no
-error_4: sociales, ya → sociales ya
-error_5: Por otro lado el → Por otro lado, el
-error_6: personas, el → personas. El
+error_15: lado muchas → lado, muchas
+error_16: voto que → voto, que
+error_17: asintomaticamente, esto → asintomaticamente. Esto
+error_18: síntoma, esto → síntoma. Esto
+error_19: forma, puede → forma. Puede
+error_20: Ahora bien en → Ahora bien, en
+error_21: conclusión todos → conclusión, todos
+error_22: octubre, porque → octubre porque
+error_23: cambio, en → cambio. En</t>
+  </si>
+  <si>
+    <t>error_1: Pero, ¿Qué → Pero ¿Qué
+error_2: Suprema?,¿ → Suprema?</t>
+  </si>
+  <si>
+    <t>error_1: población lo → población. Lo
+error_2: COVID- 19 sin → COVID- 19. Sin
+error_3: Sin embargo se → Sin embargo, se
+error_4: alterado no → alterado. No
+error_5: lado el → lado, el
+error_6: personas el → personas. El
 error_7: salud ya → salud, ya
-error_8: laboral, sin → laboral. Sin
-error_9: ; es por → . Es por</t>
-  </si>
-  <si>
-    <t>error_1: colegios al → colegios, al
-error_2: alumnos, resguardar → alumnos; resguardar
-error_3: familias y además → familias, y además</t>
-  </si>
-  <si>
-    <t>error_1: constantemente, mejora → constantemente mejora
-error_2: esta, por → esta por
-error_3: deportes, es → deportes es
-error_4: importante, para → importante para
-error_5: que, a → que a
-error_6: tanto, como → tanto como
-error_7: tipo, para → tipo para</t>
-  </si>
-  <si>
-    <t>error_1: y por ende, → y, por ende,
-error_2: tiempo, → tiempo
-error_3: ser humano, → ser humano
-error_4: especificamente , → especificamente,
-error_5: Es por ello, → Es por ello
-error_6: gobernamentales, dónde → gobernamentales dónde
-error_7: se expresaría por ejemplo → se expresaría, por ejemplo,</t>
+error_8: laboral sin → laboral. Sin
+error_9: Sin embargo con → Sin embargo, con</t>
+  </si>
+  <si>
+    <t>error_1: virtuales, permiten → virtuales permiten</t>
+  </si>
+  <si>
+    <t>error_1: que en → que, en
+error_2: escolar, el → escolar el
+error_3: constantemente, mejora → constantemente mejora
+error_4: esta, por → esta por
+error_5: anterior, nuestros → anterior nuestros
+error_6: deportes, es → deportes es
+error_7: importante, para → importante para
+error_8: que, a → que a
+error_9: tanto, como → tanto como
+error_10: esto, es → esto es
+error_11: tipo, para → tipo para</t>
+  </si>
+  <si>
+    <t>error_1: países, que → países que
+error_2: tiempo, que → tiempo que
+error_3: humano, se → humano se
+error_4: y especificamente → y, especificamente
+error_5: y por → y, por
+error_6: ello, que → ello que
+error_7: laborales q → laborales q.</t>
   </si>
   <si>
     <t>error_1: mundo → mundo.</t>
   </si>
   <si>
-    <t>error_1: , y así →  y así
+    <t>error_1: personas, y → personas y
 error_2: meses la → meses, la
 error_3: vuelto además → vuelto, además
-error_4: pobre lamentablemente → pobre, lamentablemente,
-error_5: En cambio la → En cambio, la
-error_6: encerrados temas → encerrados, temas
-error_7: , y debemos →  y debemos</t>
+error_4: pobre lamentablemente → pobre, lamentablemente
+error_5: lamentablemente es → lamentablemente, es
+error_6: recursos, y → recursos y
+error_7: En cambio la → En cambio, la
+error_8: santiario, y → santiario y
+error_9: encerrados temas → encerrados, temas</t>
   </si>
   <si>
     <t>parrafo_2 - aprendizaje: 3 veces
-parrafo_2 - estudiantes: 2 veces
+parrafo_2 - estudiante: 2 veces
+parrafo_2 - ser: 2 veces
 parrafo_3 - salud: 3 veces
-parrafo_3 - estudiantes: 2 veces
+parrafo_3 - estudiante: 2 veces
+parrafo_3 - ser: 2 veces
 parrafo_4 - clases: 3 veces
 parrafo_4 - presenciales: 3 veces
 parrafo_4 - contagio: 2 veces
 parrafo_4 - existen: 2 veces
-parrafo_5 - clases: 3 veces
-parrafo_5 - presenciales: 2 veces
-parrafo_5 - solución: 2 veces
+parrafo_5 - clase: 2 veces
+parrafo_5 - presencial: 2 veces
 parrafo_5 - sistema: 2 veces
-parrafo_5 - problemas: 2 veces</t>
-  </si>
-  <si>
-    <t>parrafo_1 - reclamos: 2 veces
+parrafo_5 - ser: 3 veces</t>
+  </si>
+  <si>
+    <t>parrafo_1 - reclamo: 2 veces
 parrafo_1 - forma: 2 veces
 parrafo_1 - vida: 2 veces
 parrafo_2 - solidaridad: 5 veces
+parrafo_2 - cristiano: 4 veces
+parrafo_2 - hacer: 3 veces
+parrafo_2 - dar: 3 veces
+parrafo_2 - no: 3 veces
+parrafo_2 - solo: 3 veces
 parrafo_2 - crear: 2 veces
 parrafo_2 - cambio: 2 veces
-parrafo_2 - cristiana: 2 veces
-parrafo_2 - cristianos: 2 veces
-parrafo_2 - solo: 3 veces
+parrafo_2 - social: 2 veces
+parrafo_2 - sociedad: 2 veces
+parrafo_2 - practicar: 2 veces
+parrafo_2 - justicia: 2 veces
 parrafo_2 - amor: 2 veces
 parrafo_2 - prójimo: 2 veces
-parrafo_2 - justicia: 2 veces
-parrafo_2 - sociedad: 2 veces
-parrafo_2 - darle: 2 veces
-parrafo_3 - no: 4 veces
-parrafo_3 - Papa: 2 veces
+parrafo_2 - valor: 2 veces
+parrafo_3 - papa: 2 veces
 parrafo_3 - tradición: 2 veces
 parrafo_3 - filosófica: 2 veces
 parrafo_3 - política: 2 veces
-parrafo_3 - cristiana: 3 veces
+parrafo_3 - cristiana: 4 veces
+parrafo_3 - social: 2 veces
+parrafo_3 - quedar: 3 veces
+parrafo_3 - hacer: 3 veces
 parrafo_3 - ideas: 2 veces
-parrafo_4 - todos: 4 veces
+parrafo_4 - pontífice: 2 veces
 parrafo_4 - mundo: 2 veces
 parrafo_4 - mejor: 2 veces
 parrafo_4 - propuesta: 2 veces
 parrafo_4 - social: 2 veces
+parrafo_4 - lograr: 2 veces
+parrafo_4 - practicar: 2 veces
+parrafo_4 - hacer: 2 veces
 parrafo_4 - forma: 2 veces
 parrafo_4 - vida: 2 veces</t>
   </si>
   <si>
-    <t>parrafo_4 - más: 3 veces
-parrafo_5 - problemas: 2 veces
-parrafo_5 - cambios: 2 veces
+    <t>parrafo_1 - ser: 2 veces
+parrafo_3 - ayudar: 2 veces
+parrafo_4 - más: 3 veces
+parrafo_5 - problema: 3 veces
+parrafo_5 - cambio: 2 veces
 parrafo_5 - población: 2 veces
+parrafo_5 - poner: 2 veces
+parrafo_5 - solucionar: 2 veces
+parrafo_5 - ser: 2 veces
+parrafo_5 - no: 2 veces
+parrafo_6 - ser: 3 veces
 parrafo_6 - no: 3 veces
 parrafo_6 - función: 2 veces</t>
   </si>
   <si>
-    <t>parrafo_1 - finales: 2 veces
+    <t>parrafo_1 - salir: 3 veces
+parrafo_1 - comenzar: 2 veces
+parrafo_1 - final: 2 veces
 parrafo_1 - virus: 2 veces
-parrafo_1 - Chile: 2 veces
+parrafo_1 - chile: 2 veces
+parrafo_1 - pandemia: 2 veces
 parrafo_1 - cuarentena: 2 veces
-parrafo_1 - pandemia: 2 veces
+parrafo_1 - consecuencia: 2 veces
 parrafo_2 - plebiscito: 2 veces
+parrafo_2 - mucho: 2 veces
 parrafo_3 - muchas: 2 veces
 parrafo_3 - no: 2 veces
-parrafo_4 - personas: 3 veces
+parrafo_3 - es: 2 veces
+parrafo_3 - persona: 2 veces
+parrafo_4 - persona: 3 veces
 parrafo_4 - virus: 2 veces
 parrafo_4 - derecho: 2 veces
+parrafo_4 - realizar: 2 veces
+parrafo_4 - ser: 2 veces
 parrafo_4 - posible: 2 veces
 parrafo_4 - no: 2 veces
 parrafo_5 - virus: 3 veces
-parrafo_5 - presentar: 3 veces
+parrafo_5 - presentar: 5 veces
+parrafo_5 - asintomático: 2 veces
+parrafo_5 - persona: 2 veces
+parrafo_5 - síntoma: 2 veces
+parrafo_5 - quiere: 2 veces
+parrafo_5 - decir: 2 veces
 parrafo_5 - demás: 2 veces
-parrafo_6 - plebiscito: 2 veces</t>
+parrafo_5 - es: 2 veces
+parrafo_6 - plebiscito: 2 veces
+parrafo_6 - contagiado: 2 veces
+parrafo_6 - su: 2 veces</t>
+  </si>
+  <si>
+    <t>parrafo_1 - es: 2 veces</t>
   </si>
   <si>
     <t>parrafo_1 - población: 2 veces
-parrafo_1 - lugares: 2 veces
+parrafo_1 - lugar: 2 veces
+parrafo_1 - ser: 3 veces
+parrafo_1 - ver: 2 veces
 parrafo_1 - debido: 2 veces
-parrafo_2 - muchas: 3 veces
+parrafo_2 - dinámica: 2 veces
 parrafo_2 - laboral: 2 veces
-parrafo_2 - trabajadores: 2 veces
-parrafo_2 - no: 2 veces
-parrafo_2 - ya: 2 veces
-parrafo_2 - es: 2 veces
+parrafo_2 - trabajador: 2 veces
+parrafo_2 - persona: 3 veces
 parrafo_2 - miles: 2 veces
-parrafo_2 - personas: 2 veces
+parrafo_2 - mucho: 3 veces
+parrafo_2 - existir: 2 veces
+parrafo_2 - alterar: 2 veces
 parrafo_3 - mundo: 2 veces
-parrafo_3 - ya: 2 veces
-parrafo_4 - personas: 3 veces</t>
-  </si>
-  <si>
-    <t>parrafo_1 - no: 2 veces
-parrafo_1 - manera: 2 veces
+parrafo_3 - aumentar: 2 veces
+parrafo_3 - ver: 2 veces
+parrafo_4 - persona: 3 veces
+parrafo_4 - lugar: 2 veces
+parrafo_4 - ver: 2 veces</t>
+  </si>
+  <si>
+    <t>parrafo_1 - realizar: 2 veces
 parrafo_1 - colegios: 2 veces
 parrafo_1 - clases: 2 veces
+parrafo_1 - manera: 2 veces
 parrafo_2 - salud: 2 veces
+parrafo_2 - realizar: 2 veces
+parrafo_3 - ocupar: 2 veces
 parrafo_3 - transporte: 2 veces
-parrafo_3 - día: 2 veces
+parrafo_3 - aquellos: 2 veces
+parrafo_3 - tener: 2 veces
 parrafo_3 - mismo: 2 veces
+parrafo_4 - colegio: 3 veces
 parrafo_4 - vacío: 2 veces
-parrafo_4 - colegio: 3 veces
-parrafo_4 - métodos: 2 veces
-parrafo_4 - no: 2 veces</t>
-  </si>
-  <si>
-    <t>parrafo_1 - grandes: 2 veces
+parrafo_4 - método: 2 veces
+parrafo_4 - producir: 2 veces
+parrafo_4 - este: 2 veces</t>
+  </si>
+  <si>
+    <t>parrafo_1 - grande: 3 veces
 parrafo_1 - aire: 2 veces
+parrafo_1 - muy: 2 veces
 parrafo_1 - día: 2 veces
-parrafo_1 - muy: 2 veces
 parrafo_2 - tipo: 2 veces
-parrafo_2 - nuestros: 2 veces
 parrafo_2 - pulmones: 2 veces
+parrafo_3 - hacer: 3 veces
+parrafo_3 - deporte: 2 veces
 parrafo_4 - cantidad: 2 veces
+parrafo_4 - físico: 2 veces
+parrafo_4 - hacer: 2 veces
+parrafo_4 - afectar: 2 veces
 parrafo_4 - no: 2 veces
+parrafo_5 - es: 2 veces
+parrafo_5 - muy: 2 veces
 parrafo_5 - importante: 2 veces
-parrafo_5 - muy: 2 veces
 parrafo_5 - alguna: 2 veces</t>
   </si>
   <si>
     <t>parrafo_1 - pandemia: 2 veces
-parrafo_1 - COVID-19: 2 veces
-parrafo_1 - consecuencias: 2 veces
+parrafo_1 - covid-19: 2 veces
+parrafo_1 - consecuencia: 2 veces
 parrafo_1 - abordaje: 2 veces
+parrafo_1 - virus: 2 veces
+parrafo_1 - ser: 2 veces
 parrafo_1 - antes: 2 veces
+parrafo_2 - anterior: 2 veces
+parrafo_2 - diverso: 2 veces
+parrafo_2 - disciplina: 2 veces
+parrafo_2 - socialización: 2 veces
+parrafo_2 - matiz: 2 veces
+parrafo_2 - calidad: 3 veces
 parrafo_2 - mejor: 2 veces
-parrafo_2 - calidad: 3 veces
 parrafo_2 - vida: 2 veces
-parrafo_2 - socialización: 2 veces
-parrafo_2 - matices: 2 veces
-parrafo_2 - desarrollo: 2 veces
-parrafo_2 - no: 2 veces</t>
-  </si>
-  <si>
-    <t>parrafo_1 - así: 2 veces
-parrafo_3 - más: 2 veces
-parrafo_4 - contagios: 2 veces
-parrafo_4 - nuevos: 2 veces
+parrafo_2 - laboral: 2 veces
+parrafo_2 - presentar: 2 veces
+parrafo_2 - plantear: 2 veces
+parrafo_2 - expresar: 2 veces</t>
+  </si>
+  <si>
+    <t>parrafo_3 - más: 2 veces
+parrafo_3 - ser: 2 veces
+parrafo_3 - generar: 2 veces
+parrafo_4 - persona: 2 veces
+parrafo_4 - contagio: 2 veces
+parrafo_4 - nuevo: 2 veces
 parrafo_4 - gente: 2 veces
-parrafo_4 - personas: 2 veces
 parrafo_4 - más: 3 veces
+parrafo_4 - ser: 3 veces
+parrafo_5 - trabajar: 5 veces
+parrafo_5 - hacer: 4 veces
+parrafo_5 - ser: 4 veces
+parrafo_5 - casa: 3 veces
+parrafo_5 - persona: 3 veces
+parrafo_5 - sector: 3 veces
 parrafo_5 - gente: 2 veces
+parrafo_5 - trabajo: 2 veces
+parrafo_5 - mano: 2 veces
+parrafo_5 - comodidad: 2 veces
 parrafo_5 - más: 2 veces
-parrafo_5 - hacer: 4 veces
-parrafo_5 - trabajo: 2 veces
-parrafo_5 - casas: 3 veces
-parrafo_5 - personas: 3 veces
-parrafo_5 - comodidad: 2 veces
-parrafo_5 - trabajar: 4 veces
-parrafo_5 - sectores: 3 veces
-parrafo_5 - así: 2 veces
 parrafo_6 - salir: 4 veces
 parrafo_6 - trabajar: 4 veces
+parrafo_6 - persona: 3 veces
 parrafo_6 - más: 3 veces
+parrafo_6 - familia: 2 veces
+parrafo_6 - tema: 2 veces
 parrafo_6 - salud: 2 veces
-parrafo_6 - personas: 2 veces
 parrafo_6 - casa: 2 veces
 parrafo_6 - jardinero: 2 veces
 parrafo_6 - dejar: 2 veces
+parrafo_6 - tener: 2 veces
+parrafo_6 - riesgoso: 2 veces
+parrafo_6 - ser: 2 veces
+parrafo_6 - haber: 2 veces
+parrafo_6 - encerrado: 2 veces
+parrafo_7 - ver: 2 veces
 parrafo_7 - personas: 2 veces
 parrafo_7 - bienestar: 2 veces</t>
   </si>
   <si>
-    <t>error_1: alteraciones en el aprendizaje → deficiencias en el aprendizaje [USO INCORRECTO DE SIGNIFICADOS]
-error_2: salud mental que difiere de lo saludable → salud mental deteriorada / no saludable [USO INCORRECTO DE SIGNIFICADOS]
-error_3: muestras que → evidencias de que / indicios de que [USO INCORRECTO DE SIGNIFICADOS]
-error_4: impusado → impulsado [USO INCORRECTO DE SIGNIFICADOS]
-error_5: y, además, → además, [REDUNDANCIA]
-error_6: anteriormente mencionados → mencionados [REDUNDANCIA]
-error_7: son la solución → (evitar repetir) 'son la solución' (elimine la repetición) [REDUNDANCIA]</t>
-  </si>
-  <si>
-    <t>error_1: en vez → en cambio (o usar 'en vez de' si sigue a un sustantivo) [USO INCORRECTO DE SIGNIFICADOS]
-error_2: sobretodo → sobre todo [USO INCORRECTO DE SIGNIFICADOS]
-error_3: hacer un mundo mejor para todos → suprimir o reformular la segunda reiteración para evitar repetir la misma idea [REDUNDANCIA]</t>
-  </si>
-  <si>
-    <t>error_1: en efecto → en efecto (uso impropio); sugerencia: 'efectivamente' o 'si bien' [USO INCORRECTO DE SIGNIFICADOS]
-error_2: poner soluciones parche → poner parches / aplicar soluciones paliativas [USO INCORRECTO DE SIGNIFICADOS]
-error_3: problemas efectivos → problemas reales / problemas de fondo [USO INCORRECTO DE SIGNIFICADOS]
-error_4: entre ello → entre ellos [USO INCORRECTO DE SIGNIFICADOS]
-error_5: prácticas de autocuidado y hábitos saludables → (redundante) elegir uno u otro o especificar la diferencia [REDUNDANCIA]
-error_6: a postura → a una postura / a adoptar una postura / hacia una postura [USO INCORRECTO DE SIGNIFICADOS]
-error_7: relevacia → relevancia [USO INCORRECTO DE SIGNIFICADOS]</t>
-  </si>
-  <si>
-    <t>error_1: salieron de este proceso, saliendo → salieron de este proceso y pasaron a [REDUNDANCIA]
-error_2: posible ... posibles → eliminar la repetición: 'aunque sea posible realizar las elecciones con todas las precauciones' o 'con todas las precauciones posibles' (solo una vez 'posible') [REDUNDANCIA]
-error_3: pandemia mundial → evitar repetición; usar solo 'pandemia' en una de las menciones [REDUNDANCIA]
-error_4: a nivel mundial → evitar repetir 'a nivel mundial' (ya se dijo 'pandemia mundial') [REDUNDANCIA]
-error_5: sufragiar → votar (o 'sufragar') [USO INCORRECTO DE SIGNIFICADOS]
-error_6: virus asintomático → persona asintomática (el virus no presenta síntomas; la persona sí) [USO INCORRECTO DE SIGNIFICADOS]
-error_7: todos el voto de uno → el voto de cada uno [USO INCORRECTO DE SIGNIFICADOS]
-error_8: a su parte → hacia ellos / a ellos [USO INCORRECTO DE SIGNIFICADOS]
-error_9: en el derecho en su derecho a voto → en su derecho a voto [REDUNDANCIA]
-error_10: super contagioso → muy contagioso (o 'súper' con tilde y en registro coloquial) [EXTRANJERISMO]</t>
-  </si>
-  <si>
-    <t>error_1: indeminzación → indemnización [USO INCORRECTO DE SIGNIFICADOS]
-error_2: lo que se conoce como el Caso Soquimich → el Caso Soquimich [REDUNDANCIA]</t>
-  </si>
-  <si>
-    <t>error_1: oficianas → oficinas [USO INCORRECTO DE SIGNIFICADOS]
-error_2: mails → correos electrónicos [EXTRANJERISMO]
-error_3: generadas debido a → generadas por / debido a (eliminar la duplicación) [REDUNDANCIA]
-error_4: trastornos ansiosos → trastornos de ansiedad [USO INCORRECTO DE SIGNIFICADOS]
-error_5: el trabajo se vio obligado a realizarse → los trabajadores se vieron obligados (a realizar su trabajo desde el hogar) [USO INCORRECTO DE SIGNIFICADOS]
-error_6: signos ansiosos → signos o síntomas de ansiedad [USO INCORRECTO DE SIGNIFICADOS]
-error_7: se ven severamente afectadas repercutiendo negativamente → se ven severamente afectadas (o repercute negativamente) [REDUNDANCIA]
-error_8: como por ejemplo → por ejemplo [REDUNDANCIA]</t>
-  </si>
-  <si>
-    <t>error_1: ocpuar → usar / tomar / disponer de [USO INCORRECTO DE SIGNIFICADOS]
-error_2: producido debido a → producido por / debido a (usar solo uno) [REDUNDANCIA]
-error_3: completar satisfactoriamente con los requerimientos → cumplir/satisfacer los requerimientos [USO INCORRECTO DE SIGNIFICADOS]
-error_4: en que estamos → (eliminar 'en que estamos') [REDUNDANCIA]
-error_5: esta última → la educación / esta [REDUNDANCIA]</t>
-  </si>
-  <si>
-    <t>error_1: suciedad al aire → suciedad en el aire; mejor: contaminantes en el aire [USO INCORRECTO DE SIGNIFICADOS]
-error_2: vida útil de nuestros pulmones → salud/funcionamiento/capacidad pulmonar (o 'salud pulmonar') [USO INCORRECTO DE SIGNIFICADOS]
-error_3: cantidad de deporte → cantidad de práctica deportiva / horas de educación física [USO INCORRECTO DE SIGNIFICADOS]
-error_4: lanzar alguna campaña o ley → promover/implementar/aprobar una ley (lanzar no es apropiado para 'ley') [USO INCORRECTO DE SIGNIFICADOS]
-error_5: como al no tenerlo → como si no la tuviéramos / como si no existiera (frase ambigua e imprecisa) [USO INCORRECTO DE SIGNIFICADOS]
-error_6: desde pequeños → (repetido) variar: 'desde la infancia', 'desde temprana edad' o eliminar repeticiones [REDUNDANCIA]
-error_7: muy importante → (repetido) variar: 'relevante', 'fundamental' o reducir repeticiones [REDUNDANCIA]
-error_8: gran problema → (repetido) variar o evitar reiteración [REDUNDANCIA]</t>
-  </si>
-  <si>
-    <t>error_1: Acusando → evidenciando / mostrando [USO INCORRECTO DE SIGNIFICADOS]
-error_2: actúen antes las consecuencias → actúen ante las consecuencias [USO INCORRECTO DE SIGNIFICADOS]
-error_3: acceso de alimentos → acceso a alimentos [USO INCORRECTO DE SIGNIFICADOS]
-error_4: cuidado y el mantenimiento de la salud → cuidado de la salud (o mantenimiento de la salud) [REDUNDANCIA]
-error_5: demás integrantes de su misma especie → demás integrantes / otros [REDUNDANCIA]
-error_6: campo y/o disciplina → campo o disciplina [REDUNDANCIA]
-error_7: en primera instancia (repetido) → evitar la repetición / usar una sola vez [REDUNDANCIA]
-error_8: mejor calidad de políticas públicas → mejores políticas públicas (o mejorar las políticas públicas) [REDUNDANCIA]</t>
-  </si>
-  <si>
-    <t>error_1: evidenciaron → afectaron a / pusieron de manifiesto [USO INCORRECTO DE SIGNIFICADOS]
-error_2: paises y estados → países (o estados) [REDUNDANCIA]</t>
-  </si>
-  <si>
-    <t>error_1: El covid-19 es un virus → COVID-19 es la enfermedad causada por el virus SARS‑CoV‑2 [USO INCORRECTO DE SIGNIFICADOS]
-error_2: asotado → azotado [USO INCORRECTO DE SIGNIFICADOS]
-error_3: psicología → salud mental / bienestar psicológico [USO INCORRECTO DE SIGNIFICADOS]
-error_4: ocacionando → ocasionando [USO INCORRECTO DE SIGNIFICADOS]
-error_5: más riesgosa a nuevos contagios → más propensa a contagiarse / con mayor riesgo de contagio [USO INCORRECTO DE SIGNIFICADOS]
-error_6: trabajan como mano de obra → trabajan como obreros / realizan trabajos manuales [USO INCORRECTO DE SIGNIFICADOS]
-error_7: usando sus manos para trabajar → (redundante) 'trabajos manuales' o suprimir [REDUNDANCIA]
-error_8: generalemente → generalmente [USO INCORRECTO DE SIGNIFICADOS]
-error_9: aún que → aunque [USO INCORRECTO DE SIGNIFICADOS]
-error_10: santiario → sanitario [USO INCORRECTO DE SIGNIFICADOS]
-error_11: paises → países [USO INCORRECTO DE SIGNIFICADOS]
-error_12: dificil → difícil [USO INCORRECTO DE SIGNIFICADOS]
-error_13: necesita del dinero → necesita el dinero / necesita dinero [USO INCORRECTO DE SIGNIFICADOS]</t>
-  </si>
-  <si>
-    <t>error_1: lo chico → asuntos de menor envergadura [COLOQUIALISMOS]
-error_2: balconeando la vida → limitándose a observar pasivamente la realidad [COLOQUIALISMOS]</t>
-  </si>
-  <si>
-    <t>error_1: soluciones parche → soluciones temporales / medidas paliativas [COLOQUIALISMOS]</t>
-  </si>
-  <si>
-    <t>error_1: todo el rato → con frecuencia / constantemente / en todo momento [COLOQUIALISMOS]
-error_2: super contagioso → muy contagioso / altamente contagioso [COLOQUIALISMOS]
-error_3: de buena forma → de manera adecuada / correctamente [COLOQUIALISMOS]</t>
-  </si>
-  <si>
-    <t>error_1: mails → correos electrónicos [COLOQUIALISMOS]
-error_2: se vio → se observó [COLOQUIALISMOS]
-error_3: se vio → se observó [COLOQUIALISMOS]
-error_4: se vio → se observó [COLOQUIALISMOS]</t>
-  </si>
-  <si>
-    <t>error_1: Por esto → Por ello / Por tanto [COLOQUIALISMOS]
-error_2: día a día → diariamente / cada día [COLOQUIALISMOS]</t>
-  </si>
-  <si>
-    <t>error_1: día a día → diariamente [COLOQUIALISMOS]
-error_2: por lo menos → al menos [COLOQUIALISMOS]
-error_3: la gente → la población / las personas [COLOQUIALISMOS]
-error_4: Por esto → Por tanto / Por ello [COLOQUIALISMOS]
-error_5: cambiar eso → modificar esta situación / corregir esta deficiencia [COLOQUIALISMOS]
-error_6: suciedad → contaminantes / partículas contaminantes [COLOQUIALISMOS]</t>
-  </si>
-  <si>
-    <t>error_1: q → que [CÓDIGO ESCRITO NO FORMAL]
-error_2: entre varios más → entre otros [COLOQUIALISMOS]</t>
-  </si>
-  <si>
-    <t>error_1: La gente → Las personas de menores recursos [COLOQUIALISMOS]
-error_2: gente de mayores recursos → personas con mayores recursos económicos [COLOQUIALISMOS]
-error_3: desde sus casas → desde sus domicilios [COLOQUIALISMOS]
-error_4: usando sus manos para trabajar → realizando labores manuales [COLOQUIALISMOS]
-error_5: mano de obra → desempeñan labores manuales [COLOQUIALISMOS]
-error_6: traer comida → proveer alimentos [COLOQUIALISMOS]
-error_7: trabajar con teletrabajo → emplear el teletrabajo [COLOQUIALISMOS]
-error_8: necesita del dinero → necesita ingresos [COLOQUIALISMOS]</t>
+    <t>error_1: mails → correos electrónicos [EXTRANJERISMO]
+error_2: como por ejemplo → por ejemplo [REDUNDANCIA]
+error_3: altera ... se ve alterado → altera ... se ven afectados [REDUNDANCIA]</t>
+  </si>
+  <si>
+    <t>error_1: más riesgosa a nuevos contagios → más propensa a nuevos contagios [USO INCORRECTO DE SIGNIFICADOS]
+error_2: más riesgosas de contagios → con mayor riesgo de contagio [USO INCORRECTO DE SIGNIFICADOS]
+error_3: mano de obra, usando sus manos → mano de obra [REDUNDANCIA]
+error_4: trabajar con teletrabajo → teletrabajar [REDUNDANCIA]
+error_5: revertir el confinamiento → levantar/eliminar el confinamiento [USO INCORRECTO DE SIGNIFICADOS]</t>
+  </si>
+  <si>
+    <t>error_1: balconeando → limitándose a observar [COLOQUIALISMOS]
+error_2: lo chico → los asuntos menores [COLOQUIALISMOS]</t>
+  </si>
+  <si>
+    <t>error_1: soluciones parche → soluciones paliativas [COLOQUIALISMOS]</t>
+  </si>
+  <si>
+    <t>error_1: super contagioso → altamente contagioso [COLOQUIALISMOS]
+error_2: todo el rato → de forma constante [COLOQUIALISMOS]</t>
+  </si>
+  <si>
+    <t>error_1: mails → correos electrónicos [ABREVIACIONES]</t>
+  </si>
+  <si>
+    <t>error_1: la gente → la población [COLOQUIALISMOS]</t>
+  </si>
+  <si>
+    <t>error_1: q → que [CÓDIGO ESCRITO NO FORMAL]</t>
   </si>
   <si>
     <t>error_1: quienes han impusado → que ha impulsado [tipo: pronombre-relativo]</t>
   </si>
   <si>
-    <t>error_1: individualismo y explotación actual → individualismo y explotación actuales [tipo: sustantivo-adjetivo]
-error_2: la forma de vida de la personas → la forma de vida de las personas [tipo: sustantivo-adjetivo]</t>
-  </si>
-  <si>
-    <t>error_1: entre ello → entre ellas [tipo: pronombre-relativo]
-error_2: que ... es una manera → que ... son una manera [tipo: pronombre-relativo]
-error_3: La promoción de las prácticas de autocuidado son importantes → La promoción de las prácticas de autocuidado es importante [tipo: sujeto-predicado]
-error_4: La alimentación ... o la incorporación de probióticos ayudan → La alimentación ... o la incorporación de probióticos ayuda [tipo: sujeto-predicado]</t>
-  </si>
-  <si>
-    <t>error_1: se frente → se enfrentó [tipo: sujeto-predicado]
-error_2: todos el voto → el voto de uno / el voto de cada uno [tipo: sujeto-predicado]
-error_3: en el casos → en el caso / en los casos [tipo: sustantivo-adjetivo]
-error_4: aun se encontraran → aún se encontrarán [tipo: B]</t>
-  </si>
-  <si>
-    <t>error_1: se ve alterado → se ven alterados [tipo: sujeto-predicado]
-error_2: el estar trabajando de manera remota se ven severamente afectadas → el estar trabajando de manera remota se ve severamente afectado [tipo: sujeto-predicado]
-error_3: del estar 'encerrados' → de estar 'encerrados' [tipo: sustantivo-adjetivo]
-error_4: sumado a las activiades basicas → sumadas a las actividades básicas [tipo: sustantivo-adjetivo]
-error_5: de estos → de estas personas [tipo: pronombre-relativo]
-error_6: se han visto ... se vio un aumento → se han visto ... se ha visto un aumento [tipo: A]
-error_7: han aumentado las consultas ... se vio aumentado el uso → han aumentado las consultas ... se ha visto aumentado el uso [tipo: A]</t>
-  </si>
-  <si>
-    <t>error_1: no escenciales → no esenciales [tipo: sustantivo-adjetivo]
-error_2: su puertas → sus puertas [tipo: sustantivo-adjetivo]
-error_3: Pese a que se realicen → Pese a que se realizan [tipo: B]
-error_4: estos sean revisados → estos son revisados [tipo: B]</t>
-  </si>
-  <si>
-    <t>error_1: a pesar de que hagamos → a pesar de que hacemos [tipo: B]
+    <t>error_1: explotación actual → la explotación actual [tipo: sustantivo-adjetivo]
+error_2: la personas → las personas [tipo: sustantivo-adjetivo]</t>
+  </si>
+  <si>
+    <t>error_1: las acciones individuales son sólo una salida rápida → las acciones individuales son sólo salidas rápidas [tipo: sujeto-predicado]
+error_2: La alimentación balanceada como una dieta y no como un régimen o la incorporación de probióticos ayudan a fortalecer el sistema inmune → La alimentación balanceada como una dieta y no como un régimen o la incorporación de probióticos ayuda a fortalecer el sistema inmune [tipo: sujeto-predicado]
+error_3: La promoción de las prácticas de autocuidado son importantes → La promoción de las prácticas de autocuidado es importante [tipo: sujeto-predicado]</t>
+  </si>
+  <si>
+    <t>error_1: todos el voto de uno puede → el voto de uno puede [tipo: sujeto-predicado]
+error_2: su derecho a voto que no prodran realizar → su derecho a voto que no podrán realizar [tipo: pronombre-relativo]</t>
+  </si>
+  <si>
+    <t>error_1: los horarios de los trabajadores se ve alterado → los horarios de los trabajadores se ven alterados [tipo: sujeto-predicado]
+error_2: el estar trabajando de manera remota se ven severamente afectadas → el estar trabajando de manera remota se ve severamente afectado [tipo: sujeto-predicado]</t>
+  </si>
+  <si>
+    <t>error_1: su puertas → sus puertas [tipo: sustantivo-adjetivo]
+error_2: resguardar la salud de estos y de sus familias y además de generar igualdad → resguardar la salud de estos y de sus familias y generar igualdad [tipo: A]</t>
+  </si>
+  <si>
+    <t>error_1: el cual → la cual [tipo: pronombre-relativo]
 error_2: la población ... son pequeños → la población ... es pequeña [tipo: sujeto-predicado]</t>
   </si>
   <si>
-    <t>error_1: los individuo → los individuos [tipo: sustantivo-adjetivo]
-error_2: que coexistían → que coexistía [tipo: pronombre-relativo]
-error_3: disciplina que se adscriba → disciplina a la que se adscriba [tipo: pronombre-relativo]</t>
-  </si>
-  <si>
-    <t>error_1: la gente ... usan → la gente ... usa [tipo: sujeto-predicado]
-error_2: la gente de mayores recursos ... son → la gente de mayores recursos ... es [tipo: sujeto-predicado]
-error_3: los más aptos → las más aptas [tipo: sustantivo-adjetivo]
-error_4: la gente ... trabajan → la gente ... trabaja [tipo: sujeto-predicado]
-error_5: persona ... desesperado → persona ... desesperada [tipo: sustantivo-adjetivo]</t>
+    <t>error_1: La gente más pobre ... ya que usan el sistema de transporte público → La gente más pobre ... ya que usa el sistema de transporte público [tipo: sujeto-predicado]
+error_2: la gente de mayores recursos generalemente son los más aptos → la gente de mayores recursos generalmente es la más apta [tipo: sujeto-predicado]
+error_3: la gente más pobre usualmente trabajan como mano de obra → la gente más pobre usualmente trabaja como mano de obra [tipo: sujeto-predicado]</t>
   </si>
   <si>
     <t>error_1: de acuerdo al → de acuerdo con [tipo: preposición/rección]
-error_2: por el cual → en que / que [tipo: preposición/rección]
-error_3: Dando como resultado → lo que ha dado como resultado [tipo: conector-inadecuado]
-error_4: muestras que → muestras de que [tipo: queísmo]
-error_5: realizando así → para así / de este modo [tipo: conector-inadecuado]
-error_6: es por ello, que → es por ello que [tipo: conector-inadecuado]
-error_7: así también, → así como / también [tipo: conector-inadecuado]</t>
-  </si>
-  <si>
-    <t>error_1: promueve, en vez, un cambio → promueve, en cambio, un cambio [tipo: locución-preposicional]
-error_2: por sobre las utilidades económicas → por encima de las utilidades económicas [tipo: locución-preposicional]
-error_3: se preocupa de invitar → se preocupa por invitar [tipo: preposición/rección]
-error_4: no se queda solo ..., no busca → no se queda solo ...; ni busca [tipo: conector-ausente]
-error_5: no se queda ... , no se queda → no se queda ...; ni se queda [tipo: conector-ausente]
-error_6: tiránica  El pontífice → tiránica. El pontífice [tipo: conector-ausente]</t>
-  </si>
-  <si>
-    <t>error_1: la capacidad respiratoria → a la capacidad respiratoria [tipo: preposición/rección]
-error_2: desarrollo muscular → al desarrollo muscular [tipo: preposición/rección]
-error_3: o el peso correcto → o al peso correcto [tipo: preposición/rección]
-error_4: o la incorporación de probióticos → y la incorporación de probióticos [tipo: conector-inadecuado]
-error_5: entre ello → entre ellas [tipo: locución-preposicional]
-error_6: a pesar de en efecto ser → a pesar de ser en efecto / a pesar de que en efecto es [tipo: preposición/rección]
-error_7: sino en cambios de políticas → sino con cambios en las políticas [tipo: preposición/rección]
-error_8: traspasado hacia la población → traspasado a la población [tipo: preposición/rección]
-error_9: en función de otro → en función de otros intereses / en función de otro(s) propósito(s) [tipo: locución-preposicional]
-error_10: llevan a la medicina a postura → llevan a la medicina a una postura [tipo: preposición/rección]</t>
-  </si>
-  <si>
-    <t>error_1: con el fin que → con el fin de que [tipo: queísmo]
-error_2: dudas si → dudas sobre si [tipo: preposición/rección]
-error_3: por esto → por ello / por eso [tipo: conector-inadecuado]
-error_4: presente el virus asintomático → presente el virus de forma asintomática [tipo: preposición/rección]
-error_5: participar del plebiscito → participar en el plebiscito [tipo: preposición/rección]
-error_6: porque todos el voto → porque el voto de uno [tipo: conector-inadecuado]
-error_7: en el casos de → en el caso de [tipo: preposición/rección]
-error_8: discriminación a su parte → discriminación hacia ellos / hacia su grupo [tipo: preposición/rección]
-error_9: en el derecho en su derecho a voto → tener derecho al voto / derecho al voto [tipo: preposición/rección]
-error_10: Ahora bien en conclusión → En conclusión / Ahora bien [tipo: conector-inadecuado]</t>
-  </si>
-  <si>
-    <t>error_1: a consecuencia del estar → a consecuencia de estar [tipo: preposición/rección]
-error_2: interactuar el resto → interactuar con el resto [tipo: preposición/rección]
-error_3: población, lo que busca → población. Lo que busca [tipo: conector-ausente]
-error_4: COVID- 19, sin embargo → COVID-19. Sin embargo [tipo: conector-inadecuado]
-error_5: generando asi que las dinamicas sociales → generando así las dinámicas sociales [tipo: conector-inadecuado]
-error_6: , el uso de medicamentos ansioliticos se vio aumentado → y el uso de medicamentos ansioliticos se vio aumentado [tipo: conector-ausente]</t>
-  </si>
-  <si>
-    <t>error_1: en que estamos → en el que estamos [tipo: preposición/rección]
-error_2: volver a clases → volver a las clases / volver a clase [tipo: preposición/rección]
-error_3: completar ... con los requerimientos → cumplir/satisfacer los requerimientos [tipo: preposición/rección]
-error_4: producido debido a → producido por / se debe a [tipo: locución-preposicional]
-error_5: para sus alumnos, resguardar → para sus alumnos y resguardar [tipo: conector-ausente]
-error_6: y además de generar → y generar / además generan [tipo: conector-inadecuado]
-error_7: En el mismo contexto, debido a → (usar solo uno: "En el mismo contexto" o "Debido a") [tipo: conector-inadecuado]</t>
+error_2: por el cual → en el que [tipo: preposición/rección]
+error_3: muestras que → muestras de que [tipo: queísmo]
+error_4: A razón de lo anterior → A raíz de lo anterior [tipo: locución-preposicional]
+error_5: a razón de las clases virtuales → a raíz de las clases virtuales [tipo: locución-preposicional]
+error_6: a razón del contacto → debido al contacto [tipo: locución-preposicional]
+error_7: Dando como resultado → lo que da como resultado [tipo: conector-ausente]
+error_8: así también → así como [tipo: conector-inadecuado]</t>
+  </si>
+  <si>
+    <t>error_1: en vez → en cambio [tipo: conector-inadecuado]
+error_2: sobretodo → sobre todo [tipo: locución-preposicional]</t>
+  </si>
+  <si>
+    <t>error_1: desarrollo muscular, o el peso correcto → desarrollo muscular y el peso correcto [tipo: conector-inadecuado]
+error_2: régimen o la incorporación → régimen y la incorporación [tipo: conector-inadecuado]
+error_3: sino en cambios de políticas → sino mediante cambios en las políticas [tipo: preposición/rección]
+error_4: traspasado hacia la población → traspasado a la población [tipo: preposición/rección]
+error_5: sobre la mesa → en la agenda [tipo: locución-preposicional]
+error_6: a pesar de en efecto ser algo positivo → a pesar de ser en efecto algo positivo [tipo: locución-preposicional]</t>
+  </si>
+  <si>
+    <t>error_1: se frente a una pandemia mundial → se encontró ante una pandemia mundial [tipo: preposición/rección]
+error_2: con el fin que se modifique → con el fin de que se modifique [tipo: queísmo]
+error_3: surgen muchas dudas si es correcto → surgen muchas dudas sobre si es correcto [tipo: preposición/rección]
+error_4: en el derecho en su derecho a voto → tienen derecho a voto [tipo: preposición/rección]
+error_5: presentar el virus asintomático → presentar el virus de forma asintomática [tipo: preposición/rección]
+error_6: participar del plebiscito → participar en el plebiscito [tipo: preposición/rección]
+error_7: en el casos de los contagiados → en el caso de los contagiados [tipo: preposición/rección]
+error_8: a su parte negandoles su participación → en su contra, negándoles su participación [tipo: preposición/rección]</t>
+  </si>
+  <si>
+    <t>error_1: generadas debido a la pandemia → generadas por la pandemia [tipo: preposición/rección]
+error_2: a consecuencia del estar "encerrados" → como consecuencia de estar "encerrados" [tipo: preposición/rección]
+error_3: interactuar el resto del personal → interactuar con el resto del personal [tipo: preposición/rección]
+error_4: generando asi que las dinamicas sociales → generando así alteraciones en las dinámicas sociales [tipo: conector-inadecuado]
+error_5: , el uso de medicamentos ansioliticos se vio aumentado → , y el uso de medicamentos ansiolíticos ha aumentado [tipo: conector-ausente]
+error_6: Por otro lado el confinamiento → Por otro lado, el confinamiento [tipo: conector-inadecuado]
+error_7: sin embargo con la pandemia → sin embargo, con la pandemia [tipo: conector-inadecuado]</t>
+  </si>
+  <si>
+    <t>error_1: completar satisfactoriamente con los requerimientos educativos → cumplir satisfactoriamente con los requerimientos educativos [tipo: preposición/rección]
+error_2: y además de generar igualdad en la accesibilidad a esta última → y además generar igualdad en la accesibilidad a esta última [tipo: locución-preposicional]</t>
   </si>
   <si>
     <t>error_1: suciedad al aire → suciedad en el aire [tipo: preposición/rección]
 error_2: Por lo que es muy recomendable → Por ello es muy recomendable [tipo: conector-inadecuado]
-error_3: es muy importante, para que → es muy importante para que [tipo: conector-inadecuado]
-error_4: como al no tenerlo → como si no lo tuviéramos [tipo: conector-inadecuado]</t>
-  </si>
-  <si>
-    <t>error_1: desde las consecuencias → en las consecuencias [tipo: preposición/rección]
+error_3: como al no tenerlo → como si no lo tuviéramos [tipo: conector-inadecuado]</t>
+  </si>
+  <si>
+    <t>error_1: se visibiliza desde las consecuencias → se visibiliza en las consecuencias [tipo: preposición/rección]
 error_2: actúen antes las consecuencias → actúen ante las consecuencias [tipo: preposición/rección]
 error_3: campo y/o disciplina que se adscriba → campo y/o disciplina a la que se adscriba [tipo: preposición/rección]
-error_4: en el acceso de alimentos → en el acceso a alimentos [tipo: preposición/rección]
-error_5: en esa medida → en ese sentido [tipo: conector-inadecuado]
-error_6: Duda que no representaría → Esta duda no representaría [tipo: conector-ausente]
-error_7: Es por ello, que → Es por ello que [tipo: conector-inadecuado]
-error_8: como se presentaría → que se presentaría [tipo: conector-inadecuado]</t>
-  </si>
-  <si>
-    <t>error_1: que evidenciaron → como evidenciaron [tipo: conector-ausente]</t>
-  </si>
-  <si>
-    <t>error_1: además de una crisis sanitaria, una que afecta → además de ser una crisis sanitaria, también afecta [tipo: locución-preposicional]
-error_2: descontento de estos sectores → descontento en estos sectores / por parte de estos sectores [tipo: preposición/rección]
-error_3: críticas de expertos en la salud pública → críticas por parte de expertos en salud pública [tipo: preposición/rección]
-error_4: personas que residen → personas que residen en esos sectores [tipo: preposición/rección]
-error_5: más riesgosa a nuevos contagios → más vulnerable/propensa a nuevos contagios [tipo: preposición/rección]
-error_6: desde las casas → desde sus casas / desde casa [tipo: preposición/rección]
-error_7: y que sectores no → y qué sectores no [tipo: conector-ausente]
-error_8: reconocer que personas son → reconocer qué personas son [tipo: conector-ausente]
-error_9: más riesgosas de contagios → con mayor riesgo de contagio [tipo: preposición/rección]
-error_10: necesita del dinero → necesita el dinero [tipo: preposición/rección]
-error_11: aún que sea → aunque sea [tipo: conector-inadecuado]
-error_12: tanto por impedir ... pero también → tanto en impedir ... como en [tipo: conector-inadecuado]</t>
-  </si>
-  <si>
-    <t>error_1: lo anterior → el bien común, el bienestar integral y la protección del pobre [tipo: pronombre-sin-referencia]</t>
-  </si>
-  <si>
-    <t>error_1: esto → de esas investigaciones o afirmaciones [tipo: pronombre-sin-referencia]
-error_2: ello → estas (prácticas/medidas) [tipo: pronombre-sin-referencia]
-error_3: otro → otros intereses [tipo: pronombre-sin-referencia]</t>
-  </si>
-  <si>
-    <t>error_1: con esto ultimo → con la convocatoria al plebiscito [tipo: pronombre-sin-referencia]
-error_2: Frente a esto → Frente a la postergación del plebiscito o a la pandemia (especificar cuál) [tipo: pronombre-sin-referencia]
-error_3: esto no quiere decir → la reprogramación de la fecha [tipo: pronombre-sin-referencia]
-error_4: a su parte → hacia los contagiados [tipo: pronombre-sin-referencia]</t>
-  </si>
-  <si>
-    <t>error_1: es por esto → por la imposibilidad de interactuar con el resto del personal [tipo: pronombre-sin-referencia]
-error_2: de estos → de las personas afectadas / de estas personas [tipo: pronombre-sin-referencia]
-error_3: algo → el aumento en el uso de ansiolíticos [tipo: pronombre-sin-referencia]</t>
-  </si>
-  <si>
-    <t>error_1: para sus alumnos → para los alumnos de los colegios [tipo: pronombre-sin-referencia]
-error_2: resguardar la salud de estos → resguardar la salud de los alumnos [tipo: pronombre-sin-referencia]
-error_3: esta última → la educación [tipo: pronombre-sin-referencia]</t>
-  </si>
-  <si>
-    <t>error_1: al no tenerlo → al no tener un organismo bien cuidado [tipo: pronombre-sin-referencia]
-error_2: desde que son pequeños → desde la infancia (o: desde que son pequeños los niños) [tipo: pronombre-sin-referencia]</t>
-  </si>
-  <si>
-    <t>error_1: objetivo anterior → objetivo del ensayo [tipo: pronombre-sin-referencia]
-error_2: que se adscriba → en que se adscriba el autor o investigador [tipo: pronombre-sin-referencia]
-error_3: cada uno de sus miembros → cada uno de los miembros de la sociedad [tipo: pronombre-sin-referencia]</t>
-  </si>
-  <si>
-    <t>error_1: dejarlos salir → dejar salir a las personas [tipo: pronombre-sin-referencia]
-error_2: esta situación → el uso del transporte público [tipo: pronombre-sin-referencia]
-error_3: Es por esto → Por la ampliación de la crisis más allá de la sanidad [tipo: pronombre-sin-referencia]</t>
+error_4: acceso de alimentos → acceso a alimentos [tipo: preposición/rección]
+error_5: En ese contexto, es que → En ese contexto se plantea [tipo: conector-inadecuado]
+error_6: sino que también en → sino también en [tipo: conector-inadecuado]
+error_7: Es por ello, que → Es por ello que [tipo: conector-inadecuado]</t>
+  </si>
+  <si>
+    <t>error_1: que evidenciaron la mayoria de los paises y estados del mundo → que se evidenciaron en la mayoría de los países y estados del mundo [tipo: preposición/rección]</t>
+  </si>
+  <si>
+    <t>error_1: se ha vuelto además de una crisis sanitaria → se ha vuelto, además de una crisis sanitaria, una crisis [tipo: locución-preposicional]
+error_2: descontento de estos sectores → descontento en estos sectores [tipo: preposición/rección]
+error_3: es más riesgosa a nuevos contagios → es más propensa a nuevos contagios [tipo: preposición/rección]
+error_4: desde las casas → desde sus casas [tipo: preposición/rección]
+error_5: más riesgosas de contagios → con mayor riesgo de contagio [tipo: preposición/rección]
+error_6: necesita del dinero → necesita el dinero [tipo: preposición/rección]
+error_7: tanto por impedir el contagio de las personas, pero también pensando en → tanto impidiendo el contagio de las personas como pensando en [tipo: conector-inadecuado]
+error_8: reconocer que personas son → reconocer qué personas son [tipo: conector-ausente]</t>
+  </si>
+  <si>
+    <t>error_1: entre ello → entre ellas [tipo: pronombre-sin-referencia]
+error_2: otro → otros intereses [tipo: pronombre-sin-referencia]</t>
+  </si>
+  <si>
+    <t>error_1: con esto ultimo → con lo anterior (el estallido social) [tipo: pronombre-sin-referencia]
+error_2: esto no quiere decir → esta reprogramación no garantiza [tipo: pronombre-sin-referencia]
+error_3: Frente a esto → Frente a la pandemia [tipo: pronombre-sin-referencia]</t>
+  </si>
+  <si>
+    <t>error_1: esta última → la educación [tipo: pronombre-sin-referencia]</t>
+  </si>
+  <si>
+    <t>error_1: no tenerlo → no tener un organismo bien cuidado [tipo: pronombre-sin-referencia]</t>
+  </si>
+  <si>
+    <t>error_1: objetivo anterior → lo planteado anteriormente / la tesis planteada previamente [tipo: pronombre-sin-referencia]
+error_2: sus miembros → los miembros de la sociedad / la población afectada [tipo: pronombre-sin-referencia]</t>
+  </si>
+  <si>
+    <t>error_1: dejarlos → permitir que salgan con normalidad [tipo: pronombre-sin-referencia]</t>
   </si>
 </sst>
 </file>
@@ -1216,23 +1053,17 @@
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1243,28 +1074,22 @@
         <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1275,28 +1100,25 @@
         <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1307,28 +1129,25 @@
         <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1338,14 +1157,11 @@
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>56</v>
+        <v>32</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1356,28 +1172,25 @@
         <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1388,60 +1201,45 @@
         <v>16</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9">
         <v>17</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1449,31 +1247,25 @@
         <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1481,19 +1273,16 @@
         <v>19</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1501,31 +1290,28 @@
         <v>20</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
